--- a/src/ExcelSheetIO/BigIssueRostering.xlsx
+++ b/src/ExcelSheetIO/BigIssueRostering.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewohalloran/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7AA3CF-E289-7844-B117-22042BB32501}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="460" windowWidth="24140" windowHeight="16680" xr2:uid="{E79E6E90-145D-3144-8FDA-433E3B7C4EE2}"/>
+    <workbookView xWindow="180" yWindow="460" windowWidth="24140" windowHeight="16680" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Cities" sheetId="7" r:id="rId1"/>
@@ -26,8 +20,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Facilitators | GuestSpeakers'!$A$1:$AH$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Summary - Melbourne'!$A$1:$R$49</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="175">
   <si>
     <t>Day</t>
   </si>
@@ -559,15 +556,24 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Abc@abc.com</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>I am not available</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -878,23 +884,23 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -902,14 +908,14 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,7 +926,7 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,7 +952,7 @@
         <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,6 +1014,9 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1031,9 +1040,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1077,7 +1083,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EBA8FDC-050E-4D49-ABC7-ED0524C31042}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EBA8FDC-050E-4D49-ABC7-ED0524C31042}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1155,7 +1161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1207,7 +1213,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1401,21 +1407,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E345FB-2B07-AC4C-A704-676D3066FA93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A30" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="16" width="10.83203125" customWidth="1"/>
     <col min="17" max="16384" width="10.83203125" hidden="1"/>
@@ -3871,19 +3877,23 @@
     <row r="64" spans="1:15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5D2BAB-1A94-3041-AB73-4D376548A3BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="99" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.83203125" customWidth="1"/>
     <col min="2" max="7" width="12.5" customWidth="1"/>
@@ -3897,10 +3907,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="36"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" s="17" t="s">
@@ -6850,16 +6860,15 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{4F8A08D1-3ABF-504D-B03F-EBE9B5C2433F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"January,February,March,April,May,June,July,August,September,October,November,December"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="33" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1BD08A73-C8AF-2344-8350-2A174E9ACEA0}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Locations | Workshops'!$A$3:$A$24</xm:f>
           </x14:formula1>
@@ -6867,23 +6876,26 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1A6B6A-E588-884B-9F6B-F339278205E6}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="C15" activeCellId="1" sqref="A1:C1 C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="3.83203125" customWidth="1"/>
@@ -6891,16 +6903,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
       <c r="E1" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17">
+    <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
@@ -7118,23 +7130,27 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B466F7-2593-DF4B-9F96-011BB0AEA81A}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="106" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -7143,14 +7159,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-    </row>
-    <row r="2" spans="1:4" ht="17">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="24" t="s">
         <v>43</v>
       </c>
@@ -7164,7 +7180,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="16">
       <c r="A3" s="27" t="s">
         <v>162</v>
       </c>
@@ -7216,11 +7232,11 @@
       <c r="C6" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="36">
         <v>423624108</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="16">
       <c r="A7" s="31" t="s">
         <v>163</v>
       </c>
@@ -7230,7 +7246,7 @@
       <c r="C7" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="36">
         <v>86606703</v>
       </c>
     </row>
@@ -7244,7 +7260,7 @@
       <c r="C8" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="36">
         <v>423737490</v>
       </c>
     </row>
@@ -7258,7 +7274,7 @@
       <c r="C9" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="36" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7272,7 +7288,7 @@
       <c r="C10" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="36">
         <v>431277766</v>
       </c>
     </row>
@@ -7284,7 +7300,7 @@
         <v>119</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="44"/>
+      <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="32" t="s">
@@ -7296,7 +7312,7 @@
       <c r="C12" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="36">
         <v>417108341</v>
       </c>
     </row>
@@ -7310,7 +7326,7 @@
       <c r="C13" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="36">
         <v>439631177</v>
       </c>
     </row>
@@ -7324,7 +7340,7 @@
       <c r="C14" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="36" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7338,7 +7354,7 @@
       <c r="C15" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="36">
         <v>475414701</v>
       </c>
     </row>
@@ -7352,7 +7368,7 @@
       <c r="C16" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="36">
         <v>416864965</v>
       </c>
     </row>
@@ -7366,7 +7382,7 @@
       <c r="C17" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="36">
         <v>431747640</v>
       </c>
     </row>
@@ -7380,7 +7396,7 @@
       <c r="C18" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="36">
         <v>93971899</v>
       </c>
     </row>
@@ -7394,7 +7410,7 @@
       <c r="C19" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="36">
         <v>432801338</v>
       </c>
     </row>
@@ -7402,7 +7418,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="44"/>
+      <c r="D20" s="36"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -8171,40 +8187,44 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{2735B7BE-58DF-7641-9AA6-FBEF1DF9E278}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{92262DF3-EA06-8748-A99C-5F3833885AD0}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{93251AB2-B208-0249-89DD-E6A70F9AE871}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{3C5A9BEB-1A0E-A248-A373-121538BDC0D7}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{799DA0EF-C19F-3A4B-A575-F98C6CB8499C}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{3CC1C0E3-D5BA-F14B-A32A-007B95FA2500}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{9015FA1A-D828-8D43-A47C-A3F9FE9528E9}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{72661ABB-23C5-274A-A053-C2DEA96E2138}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{581A7B67-90C5-CC48-80D5-A4CE86924AEA}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{9A382E2B-95B4-F142-B347-6C1F5724B357}"/>
-    <hyperlink ref="C14" r:id="rId11" xr:uid="{5CBEED31-12D3-5F46-874E-B3EF4F8789E9}"/>
-    <hyperlink ref="C15" r:id="rId12" xr:uid="{011DEE94-9C3C-F74D-9536-B35FC6676708}"/>
-    <hyperlink ref="C16" r:id="rId13" xr:uid="{35D5DEAA-3064-B745-BA74-7C23488BC54F}"/>
-    <hyperlink ref="C17" r:id="rId14" xr:uid="{AF10BEAB-742F-D24F-A583-C62ED6ABDACD}"/>
-    <hyperlink ref="C18" r:id="rId15" xr:uid="{04CDC276-EE84-C54A-AAA4-0610E433EDE4}"/>
-    <hyperlink ref="C19" r:id="rId16" xr:uid="{0B101CB8-F902-CC40-9D73-9D83E54D1F16}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C12" r:id="rId9"/>
+    <hyperlink ref="C13" r:id="rId10"/>
+    <hyperlink ref="C14" r:id="rId11"/>
+    <hyperlink ref="C15" r:id="rId12"/>
+    <hyperlink ref="C16" r:id="rId13"/>
+    <hyperlink ref="C17" r:id="rId14"/>
+    <hyperlink ref="C18" r:id="rId15"/>
+    <hyperlink ref="C19" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="32" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71338051-90F3-8F4C-B149-8C45E00C0FC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH43"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="92" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="92" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="21" width="20.1640625" customWidth="1"/>
     <col min="22" max="22" width="19.83203125" bestFit="1" customWidth="1"/>
@@ -8390,15 +8410,27 @@
       <c r="C3" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="3">
+        <v>999888777</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="G3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="K3" s="12">
         <v>0.47916666666666669</v>
       </c>
@@ -8419,8 +8451,12 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
+      <c r="W3" s="3">
+        <v>10</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
@@ -10044,42 +10080,49 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2 I2:K3 M2:P3 R2:V43 I4:P43" xr:uid="{E16E5C95-0089-1942-8B93-197FAB1D24FB}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2 I2:K3 M2:P3 R2:V43 I4:P43">
       <formula1>0.375</formula1>
       <formula2>0.708333333333333</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F43" xr:uid="{E1C05E16-A33E-7A48-ADC9-07E01ACB1EC3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F43">
       <formula1>"Melbourne,Sydney,Canberra"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H43" xr:uid="{ED2EF673-3E7B-C04E-B5C7-76C76C062455}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H43">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A43" xr:uid="{97611804-61B0-EC48-A6DD-FB3A6987636C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A43">
       <formula1>"Facilitator,Guest Speaker"</formula1>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576" xr:uid="{8814D32F-9643-E948-84AB-FB6C79A8476B}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576">
       <formula1>0.354166666666667</formula1>
       <formula2>0.708333333333333</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="13" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D27BAD-9535-ED43-8098-B0DBBF9D0000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y1207"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
       <pane xSplit="4" ySplit="7" topLeftCell="K79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="Q9" sqref="Q9:Q107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -10094,61 +10137,61 @@
     <col min="26" max="16384" width="10.83203125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17" thickBot="1"/>
+    <row r="1" spans="1:17" ht="16" thickBot="1"/>
     <row r="2" spans="1:17">
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="P2" s="41">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="P2" s="42">
         <f ca="1">TODAY()</f>
-        <v>43721</v>
+        <v>43722</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="P3" s="42"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="P4" s="42"/>
-    </row>
-    <row r="5" spans="1:17" ht="17" thickBot="1">
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="P5" s="43"/>
-    </row>
-    <row r="7" spans="1:17" ht="21">
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="P4" s="43"/>
+    </row>
+    <row r="5" spans="1:17" ht="16" thickBot="1">
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="P5" s="44"/>
+    </row>
+    <row r="7" spans="1:17" ht="20">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -39652,7 +39695,7 @@
       <c r="P1207" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:I1207" xr:uid="{865F0859-9E96-5243-85C6-66DA3C2C5B08}">
+  <autoFilter ref="B7:I1207">
     <filterColumn colId="0">
       <filters>
         <filter val="January"/>
@@ -39664,7 +39707,7 @@
     <mergeCell ref="P2:P5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C107" xr:uid="{2324CC0D-9A45-DB48-9A16-4D9242F09B40}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C107">
       <formula1>"Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday"</formula1>
     </dataValidation>
   </dataValidations>
@@ -39673,19 +39716,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F5C52C0-691F-5F44-8712-B950C1AB54ED}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Locations | Workshops'!$A$3:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>G8:G107</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C163EE85-DD59-BE49-BF01-AE2FAB820960}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Locations | Workshops'!$E$3:$E$24</xm:f>
           </x14:formula1>
           <xm:sqref>I8:I107</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{04B20101-F2DF-7C40-B327-E4EFC4E1917D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Contact Information'!$A$3:$A$130</xm:f>
           </x14:formula1>
@@ -39693,6 +39736,9 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
--- a/src/ExcelSheetIO/BigIssueRostering.xlsx
+++ b/src/ExcelSheetIO/BigIssueRostering.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="175">
   <si>
     <t>Day</t>
   </si>
@@ -562,6 +562,9 @@
   <si>
     <t>No</t>
   </si>
+  <si>
+    <t>ddddddd</t>
+  </si>
 </sst>
 </file>
 
@@ -570,13 +573,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -684,6 +686,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -913,13 +923,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -994,8 +1005,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8358,10 +8370,10 @@
   <dimension ref="A1:AH43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="92" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8506,10 +8518,10 @@
         <v>173</v>
       </c>
       <c r="I2" s="12">
-        <v>0.45833333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J2" s="12">
-        <v>0.52083333333333337</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
@@ -8535,8 +8547,12 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
+      <c r="W2" s="12">
+        <v>0.6875</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
@@ -10214,7 +10230,7 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2 I2:K3 M2:P3 R2:V43 I4:P43">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2 I2:K3 M2:P3 R2:V43 I4:P43 W2">
       <formula1>0.375</formula1>
       <formula2>0.708333333333333</formula2>
     </dataValidation>
@@ -10233,6 +10249,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/src/ExcelSheetIO/BigIssueRostering.xlsx
+++ b/src/ExcelSheetIO/BigIssueRostering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joao/Documents/GitHub/swen90014-2019-bi-bilby/src/ExcelSheetIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A1C0F8-F679-2740-82C7-A13C4E8928D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFDBE8D-C159-DA46-A40A-8A6BBC1C19B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Cities" sheetId="7" r:id="rId1"/>
@@ -8018,11 +8018,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH43"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="92" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="92" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
+      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8187,13 +8187,17 @@
         <v>0.5625</v>
       </c>
       <c r="Q2" s="12">
-        <v>0.4375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="R2" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="S2" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="T2" s="12">
+        <v>0.625</v>
+      </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="12">
@@ -8294,7 +8298,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="N4" s="12">
-        <v>0.5625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O4" s="12">
         <v>0.52083333333333337</v>
@@ -8354,8 +8358,12 @@
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="S5" s="12">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="T5" s="12">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -8397,7 +8405,7 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12">
-        <v>0.47916666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="P6" s="12">
         <v>0.60416666666666663</v>
@@ -8465,7 +8473,7 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12">
-        <v>0.47916666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="T7" s="12">
         <v>0.60416666666666663</v>
@@ -8574,7 +8582,7 @@
         <v>0.375</v>
       </c>
       <c r="R9" s="12">
-        <v>0.5625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -8626,8 +8634,12 @@
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="S10" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="T10" s="12">
+        <v>0.5</v>
+      </c>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -8678,7 +8690,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="R11" s="12">
-        <v>0.52083333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -8734,8 +8746,12 @@
       <c r="R12" s="12">
         <v>0.60416666666666663</v>
       </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="S12" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="T12" s="12">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -8782,8 +8798,12 @@
       <c r="P13" s="12">
         <v>0.60416666666666663</v>
       </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="Q13" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="R13" s="12">
+        <v>0.5</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -8822,16 +8842,28 @@
       <c r="J14" s="12">
         <v>0.6875</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="Q14" s="12">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="R14" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="S14" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="T14" s="12">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -8874,8 +8906,12 @@
       <c r="P15" s="12">
         <v>0.5</v>
       </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="Q15" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R15" s="12">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -9935,11 +9971,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Y1207"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/ExcelSheetIO/BigIssueRostering.xlsx
+++ b/src/ExcelSheetIO/BigIssueRostering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omja Das\Documents\GitHub\bi-bilby\src\ExcelSheetIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14EC0AC-1BFB-4538-9C65-2997EF212BE1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A1A576-F0A8-4BB6-B263-CEC7032E59FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/ExcelSheetIO/BigIssueRostering.xlsx
+++ b/src/ExcelSheetIO/BigIssueRostering.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Cities" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="172">
   <si>
     <t>Date</t>
   </si>
@@ -553,6 +553,9 @@
   <si>
     <t>Guest Speaker Required</t>
   </si>
+  <si>
+    <t>www.www@sss.com</t>
+  </si>
 </sst>
 </file>
 
@@ -1063,7 +1066,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EBA8FDC-050E-4D49-ABC7-ED0524C31042}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EBA8FDC-050E-4D49-ABC7-ED0524C31042}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,7 +1390,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1407,12 +1410,12 @@
     <col min="17" max="16384" width="10.83203125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16">
+    <row r="2" spans="1:15">
       <c r="A2" s="13" t="s">
         <v>26</v>
       </c>
@@ -1459,7 +1462,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16">
+    <row r="3" spans="1:15">
       <c r="A3" s="14" t="s">
         <v>27</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16">
+    <row r="4" spans="1:15">
       <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
@@ -1581,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16">
+    <row r="5" spans="1:15">
       <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16">
+    <row r="6" spans="1:15">
       <c r="A6" s="15" t="s">
         <v>30</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16">
+    <row r="7" spans="1:15">
       <c r="A7" s="14" t="s">
         <v>31</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16">
+    <row r="8" spans="1:15">
       <c r="A8" s="14" t="s">
         <v>32</v>
       </c>
@@ -1825,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16">
+    <row r="9" spans="1:15">
       <c r="A9" s="14" t="s">
         <v>33</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16">
+    <row r="10" spans="1:15">
       <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
@@ -1947,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16">
+    <row r="11" spans="1:15">
       <c r="A11" s="16" t="s">
         <v>35</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16">
+    <row r="12" spans="1:15">
       <c r="A12" s="16" t="s">
         <v>36</v>
       </c>
@@ -2069,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16">
+    <row r="13" spans="1:15">
       <c r="A13" s="16" t="s">
         <v>37</v>
       </c>
@@ -2130,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16">
+    <row r="14" spans="1:15">
       <c r="A14" s="16" t="s">
         <v>38</v>
       </c>
@@ -2191,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="16">
+    <row r="15" spans="1:15">
       <c r="A15" s="13" t="s">
         <v>85</v>
       </c>
@@ -2252,13 +2255,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16"/>
-    <row r="17" spans="1:15" ht="16">
+    <row r="16" spans="1:15"/>
+    <row r="17" spans="1:15">
       <c r="A17" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="16">
+    <row r="18" spans="1:15">
       <c r="A18" s="13" t="s">
         <v>26</v>
       </c>
@@ -2305,7 +2308,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="16">
+    <row r="19" spans="1:15">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -2366,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="16">
+    <row r="20" spans="1:15">
       <c r="A20" s="14" t="s">
         <v>28</v>
       </c>
@@ -2427,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="16">
+    <row r="21" spans="1:15">
       <c r="A21" s="14" t="s">
         <v>29</v>
       </c>
@@ -2488,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="16">
+    <row r="22" spans="1:15">
       <c r="A22" s="15" t="s">
         <v>30</v>
       </c>
@@ -2549,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="16">
+    <row r="23" spans="1:15">
       <c r="A23" s="14" t="s">
         <v>31</v>
       </c>
@@ -2610,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16">
+    <row r="24" spans="1:15">
       <c r="A24" s="14" t="s">
         <v>32</v>
       </c>
@@ -2671,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="16">
+    <row r="25" spans="1:15">
       <c r="A25" s="14" t="s">
         <v>33</v>
       </c>
@@ -2732,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="16">
+    <row r="26" spans="1:15">
       <c r="A26" s="14" t="s">
         <v>34</v>
       </c>
@@ -2793,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="16">
+    <row r="27" spans="1:15">
       <c r="A27" s="16" t="s">
         <v>35</v>
       </c>
@@ -2854,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="16">
+    <row r="28" spans="1:15">
       <c r="A28" s="16" t="s">
         <v>36</v>
       </c>
@@ -2915,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="16">
+    <row r="29" spans="1:15">
       <c r="A29" s="16" t="s">
         <v>37</v>
       </c>
@@ -2976,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="16">
+    <row r="30" spans="1:15">
       <c r="A30" s="16" t="s">
         <v>38</v>
       </c>
@@ -3037,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="16">
+    <row r="31" spans="1:15">
       <c r="A31" s="13" t="s">
         <v>85</v>
       </c>
@@ -3098,13 +3101,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="16"/>
-    <row r="33" spans="1:15" ht="16">
+    <row r="32" spans="1:15"/>
+    <row r="33" spans="1:15">
       <c r="A33" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="16">
+    <row r="34" spans="1:15">
       <c r="A34" s="13" t="s">
         <v>26</v>
       </c>
@@ -3151,7 +3154,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="16">
+    <row r="35" spans="1:15">
       <c r="A35" s="14" t="s">
         <v>27</v>
       </c>
@@ -3173,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="16">
+    <row r="36" spans="1:15">
       <c r="A36" s="14" t="s">
         <v>28</v>
       </c>
@@ -3195,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="16">
+    <row r="37" spans="1:15">
       <c r="A37" s="14" t="s">
         <v>29</v>
       </c>
@@ -3217,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="16">
+    <row r="38" spans="1:15">
       <c r="A38" s="15" t="s">
         <v>30</v>
       </c>
@@ -3239,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="16">
+    <row r="39" spans="1:15">
       <c r="A39" s="14" t="s">
         <v>31</v>
       </c>
@@ -3261,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="16">
+    <row r="40" spans="1:15">
       <c r="A40" s="14" t="s">
         <v>32</v>
       </c>
@@ -3283,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="16">
+    <row r="41" spans="1:15">
       <c r="A41" s="14" t="s">
         <v>33</v>
       </c>
@@ -3305,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="16">
+    <row r="42" spans="1:15">
       <c r="A42" s="14" t="s">
         <v>34</v>
       </c>
@@ -3327,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="16">
+    <row r="43" spans="1:15">
       <c r="A43" s="16" t="s">
         <v>35</v>
       </c>
@@ -3349,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="16">
+    <row r="44" spans="1:15">
       <c r="A44" s="16" t="s">
         <v>36</v>
       </c>
@@ -3371,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="16">
+    <row r="45" spans="1:15">
       <c r="A45" s="16" t="s">
         <v>37</v>
       </c>
@@ -3393,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="16">
+    <row r="46" spans="1:15">
       <c r="A46" s="16" t="s">
         <v>38</v>
       </c>
@@ -3415,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="16">
+    <row r="47" spans="1:15">
       <c r="A47" s="13" t="s">
         <v>85</v>
       </c>
@@ -3476,13 +3479,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="16"/>
-    <row r="49" spans="1:15" ht="16">
+    <row r="48" spans="1:15"/>
+    <row r="49" spans="1:15">
       <c r="A49" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="16">
+    <row r="50" spans="1:15">
       <c r="A50" s="13" t="s">
         <v>26</v>
       </c>
@@ -3529,7 +3532,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="16">
+    <row r="51" spans="1:15">
       <c r="A51" s="14" t="s">
         <v>27</v>
       </c>
@@ -3551,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="16">
+    <row r="52" spans="1:15">
       <c r="A52" s="14" t="s">
         <v>28</v>
       </c>
@@ -3573,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="16">
+    <row r="53" spans="1:15">
       <c r="A53" s="14" t="s">
         <v>29</v>
       </c>
@@ -3595,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="16">
+    <row r="54" spans="1:15">
       <c r="A54" s="15" t="s">
         <v>30</v>
       </c>
@@ -3617,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="16">
+    <row r="55" spans="1:15">
       <c r="A55" s="14" t="s">
         <v>31</v>
       </c>
@@ -3639,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="16">
+    <row r="56" spans="1:15">
       <c r="A56" s="14" t="s">
         <v>32</v>
       </c>
@@ -3661,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="16">
+    <row r="57" spans="1:15">
       <c r="A57" s="14" t="s">
         <v>33</v>
       </c>
@@ -3683,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="16">
+    <row r="58" spans="1:15">
       <c r="A58" s="14" t="s">
         <v>34</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="16">
+    <row r="59" spans="1:15">
       <c r="A59" s="16" t="s">
         <v>35</v>
       </c>
@@ -3727,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="16">
+    <row r="60" spans="1:15">
       <c r="A60" s="16" t="s">
         <v>36</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="16">
+    <row r="61" spans="1:15">
       <c r="A61" s="16" t="s">
         <v>37</v>
       </c>
@@ -3771,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="16">
+    <row r="62" spans="1:15">
       <c r="A62" s="16" t="s">
         <v>38</v>
       </c>
@@ -3793,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="16">
+    <row r="63" spans="1:15">
       <c r="A63" s="13" t="s">
         <v>85</v>
       </c>
@@ -3854,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="16"/>
+    <row r="64" spans="1:15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6526,7 +6529,7 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
@@ -6915,7 +6918,7 @@
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
     </row>
-    <row r="2" spans="1:5" ht="17">
+    <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
         <v>42</v>
       </c>
@@ -8153,11 +8156,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH43"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="92" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="92" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8290,7 +8293,9 @@
         <v>141</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -8362,7 +8367,9 @@
       <c r="C3" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -8420,7 +8427,9 @@
         <v>144</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -8478,7 +8487,9 @@
         <v>145</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -8532,7 +8543,9 @@
         <v>146</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -8592,7 +8605,9 @@
       <c r="C7" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>3</v>
@@ -8654,7 +8669,9 @@
         <v>149</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -8712,7 +8729,9 @@
         <v>150</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -8770,7 +8789,9 @@
         <v>151</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -8828,7 +8849,9 @@
         <v>152</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>3</v>
@@ -8886,7 +8909,9 @@
         <v>153</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -8948,7 +8973,9 @@
         <v>154</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>3</v>
@@ -9006,7 +9033,9 @@
         <v>155</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -9068,7 +9097,9 @@
         <v>156</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -10142,7 +10173,12 @@
       <formula2>0.708333333333333</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3:D15" r:id="rId2" display="www.www@sss.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10156,7 +10192,7 @@
   <dimension ref="A1:Y1207"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
@@ -10176,7 +10212,7 @@
     <col min="26" max="16384" width="10.83203125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17" thickBot="1">
+    <row r="1" spans="1:15" ht="16" thickBot="1">
       <c r="B1"/>
     </row>
     <row r="2" spans="1:15">
@@ -10223,7 +10259,7 @@
       <c r="K4" s="42"/>
       <c r="N4" s="44"/>
     </row>
-    <row r="5" spans="1:15" ht="17" thickBot="1">
+    <row r="5" spans="1:15" ht="16" thickBot="1">
       <c r="B5"/>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
@@ -10239,7 +10275,7 @@
     <row r="6" spans="1:15">
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:15" ht="21">
+    <row r="7" spans="1:15" ht="20">
       <c r="A7" t="s">
         <v>47</v>
       </c>

--- a/src/ExcelSheetIO/BigIssueRostering.xlsx
+++ b/src/ExcelSheetIO/BigIssueRostering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joao/Documents/GitHub/swen90014-2019-bi-bilby/src/ExcelSheetIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72A7A3A-DDC3-D44E-8C97-68C4F9B84988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F9ABB1-4945-BD43-BBED-D275854D72A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Cities" sheetId="7" r:id="rId1"/>
@@ -3974,11 +3974,11 @@
       </c>
       <c r="C6" s="9">
         <f>IFERROR(INDEX(Melbourne!$B$8:$N$107,MATCH($A6,Melbourne!$O$8:$O$107,0),MATCH('Summary - Melbourne'!C$5,Melbourne!$B$7:$N$7,0)),"")</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D6" s="9">
         <f>IFERROR(INDEX(Melbourne!$B$8:$N$107,MATCH($A6,Melbourne!$O$8:$O$107,0),MATCH('Summary - Melbourne'!D$5,Melbourne!$B$7:$N$7,0)),"")</f>
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E6" s="6" t="str">
         <f>IFERROR(INDEX(Melbourne!$B$8:$N$107,MATCH($A6,Melbourne!$O$8:$O$107,0),MATCH('Summary - Melbourne'!E$5,Melbourne!$B$7:$N$7,0)),"")</f>
@@ -3994,27 +3994,27 @@
       </c>
       <c r="H6" s="6">
         <f>IFERROR(INDEX(Melbourne!$B$8:$N$107,MATCH($A6,Melbourne!$O$8:$O$107,0),MATCH('Summary - Melbourne'!H$5,Melbourne!$B$7:$N$7,0)),"")</f>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I6" s="6">
         <f>IFERROR(INDEX(Melbourne!$B$8:$N$107,MATCH($A6,Melbourne!$O$8:$O$107,0),MATCH('Summary - Melbourne'!I$5,Melbourne!$B$7:$N$7,0)),"")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6" s="6" t="str">
         <f>IFERROR(INDEX(Melbourne!$B$8:$N$107,MATCH($A6,Melbourne!$O$8:$O$107,0),MATCH('Summary - Melbourne'!J$5,Melbourne!$B$7:$N$7,0)),"")</f>
-        <v>Andrew Barker(2)</v>
+        <v>Cassandra Bawden</v>
       </c>
       <c r="K6" s="6" t="str">
         <f>IFERROR(INDEX(Melbourne!$B$8:$N$107,MATCH($A6,Melbourne!$O$8:$O$107,0),MATCH('Summary - Melbourne'!K$5,Melbourne!$B$7:$N$7,0)),"")</f>
-        <v>City Cite - Plenty Valley Christian College</v>
+        <v>Mount Clear College</v>
       </c>
       <c r="L6" s="6" t="str">
         <f>IFERROR(INDEX(Melbourne!$B$8:$N$107,MATCH($A6,Melbourne!$O$8:$O$107,0),MATCH('Summary - Melbourne'!L$5,Melbourne!$B$7:$N$7,0)),"")</f>
-        <v>ABarker@citycite.vic.edu.au</v>
+        <v>bawden.cassandra.j@edumail.vic.gov.au</v>
       </c>
       <c r="M6" s="6">
         <f>IFERROR(INDEX(Melbourne!$B$8:$N$107,MATCH($A6,Melbourne!$O$8:$O$107,0),MATCH('Summary - Melbourne'!M$5,Melbourne!$B$7:$N$7,0)),"")</f>
-        <v>86606703</v>
+        <v>423737490</v>
       </c>
       <c r="N6" s="6" t="str">
         <f>IFERROR(INDEX(Melbourne!$B$8:$N$107,MATCH($A6,Melbourne!$O$8:$O$107,0),MATCH('Summary - Melbourne'!N$5,Melbourne!$B$7:$N$7,0)),"")</f>
@@ -8166,10 +8166,10 @@
   <dimension ref="A1:AH43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="92" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomRight" activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8321,32 +8321,32 @@
       <c r="J2" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="K2" s="12">
+        <v>0.4375</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="M2" s="12">
-        <v>0.4375</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N2" s="12">
-        <v>0.52083333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="O2" s="12">
-        <v>0.47916666666666669</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="P2" s="12">
-        <v>0.5625</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="Q2" s="12">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="R2" s="12">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="S2" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="T2" s="12">
         <v>0.625</v>
       </c>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="12">
@@ -8389,28 +8389,28 @@
       <c r="H3" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12">
+      <c r="I3" s="12">
         <v>0.47916666666666669</v>
       </c>
-      <c r="L3" s="28">
+      <c r="J3" s="28">
         <v>0.60416666666666663</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="O3" s="12">
-        <v>0.39583333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="P3" s="12">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="R3" s="12">
         <v>0.625</v>
       </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -8451,28 +8451,28 @@
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="K4" s="12">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="M4" s="12">
-        <v>0.47916666666666669</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N4" s="12">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="O4" s="12">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="P4" s="12">
         <v>0.60416666666666663</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="12">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="12">
         <v>0.375</v>
       </c>
-      <c r="T4" s="12">
+      <c r="R4" s="12">
         <v>0.54166666666666663</v>
       </c>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
@@ -8513,22 +8513,22 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12">
+      <c r="M5" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="P5" s="12">
+      <c r="N5" s="12">
         <v>0.58333333333333337</v>
       </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12">
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12">
         <v>0.52083333333333337</v>
       </c>
-      <c r="T5" s="12">
+      <c r="R5" s="12">
         <v>0.58333333333333337</v>
       </c>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -8565,28 +8565,28 @@
       <c r="H6" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12">
+      <c r="I6" s="12">
         <v>0.39583333333333331</v>
       </c>
-      <c r="L6" s="12">
+      <c r="J6" s="12">
         <v>0.52083333333333337</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="O6" s="12">
         <v>0.45833333333333331</v>
       </c>
       <c r="P6" s="12">
         <v>0.60416666666666663</v>
       </c>
-      <c r="Q6" s="12">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="R6" s="12">
-        <v>0.60416666666666663</v>
-      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -8627,34 +8627,30 @@
       <c r="H7" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="12">
-        <v>0.4375</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="M7" s="12">
         <v>0.39583333333333331</v>
       </c>
       <c r="N7" s="12">
         <v>0.47916666666666669</v>
       </c>
-      <c r="O7" s="12">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="P7" s="12">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12">
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="T7" s="12">
+      <c r="R7" s="12">
         <v>0.60416666666666663</v>
       </c>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -8692,27 +8688,23 @@
         <v>165</v>
       </c>
       <c r="I8" s="12">
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="J8" s="12">
-        <v>0.6875</v>
-      </c>
-      <c r="K8" s="12">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="L8" s="12">
         <v>0.66666666666666663</v>
       </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12">
+      <c r="O8" s="12">
         <v>0.35416666666666669</v>
       </c>
-      <c r="R8" s="12">
+      <c r="P8" s="12">
         <v>0.47916666666666669</v>
       </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -8753,26 +8745,26 @@
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="K9" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="M9" s="12">
         <v>0.39583333333333331</v>
       </c>
       <c r="N9" s="12">
-        <v>0.52083333333333337</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="O9" s="12">
-        <v>0.39583333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="P9" s="12">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="R9" s="12">
         <v>0.58333333333333337</v>
       </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -8813,28 +8805,28 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="K10" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0.5625</v>
+      </c>
       <c r="M10" s="12">
         <v>0.39583333333333331</v>
       </c>
       <c r="N10" s="12">
-        <v>0.5625</v>
-      </c>
-      <c r="O10" s="12">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="P10" s="12">
         <v>0.60416666666666663</v>
       </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="12">
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="12">
         <v>0.375</v>
       </c>
-      <c r="T10" s="12">
+      <c r="R10" s="12">
         <v>0.5</v>
       </c>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -8871,28 +8863,28 @@
       <c r="H11" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="I11" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="K11" s="12">
-        <v>0.39583333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="L11" s="12">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="M11" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="N11" s="12">
         <v>0.625</v>
       </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="12">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="12">
         <v>0.35416666666666669</v>
       </c>
-      <c r="R11" s="12">
+      <c r="P11" s="12">
         <v>0.5625</v>
       </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -8931,34 +8923,34 @@
       <c r="H12" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="12">
+      <c r="I12" s="12">
         <v>0.47916666666666669</v>
       </c>
-      <c r="L12" s="12">
+      <c r="J12" s="12">
         <v>0.60416666666666663</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="O12" s="12">
-        <v>0.39583333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="P12" s="12">
-        <v>0.58333333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="Q12" s="12">
         <v>0.45833333333333331</v>
       </c>
       <c r="R12" s="12">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="S12" s="12">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="T12" s="12">
         <v>0.58333333333333337</v>
       </c>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -8997,26 +8989,26 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="M13" s="12">
         <v>0.39583333333333331</v>
       </c>
       <c r="N13" s="12">
-        <v>0.52083333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="O13" s="12">
-        <v>0.39583333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="P13" s="12">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="Q13" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="R13" s="12">
         <v>0.5</v>
       </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -9069,20 +9061,20 @@
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="O14" s="12">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="P14" s="12">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="Q14" s="12">
-        <v>0.35416666666666669</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R14" s="12">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="S14" s="12">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="T14" s="12">
         <v>0.58333333333333337</v>
       </c>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -9123,13 +9115,17 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="M15" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0.5</v>
+      </c>
       <c r="O15" s="12">
         <v>0.41666666666666669</v>
       </c>
       <c r="P15" s="12">
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="Q15" s="12">
         <v>0.41666666666666669</v>
@@ -10164,7 +10160,7 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2 I2:K3 M2:P3 R2:V43 I4:P43 W2" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P15 W2 I2:J2 I3 I4:L43 K2:L3 M2:N43 O16:P43 S2:V43 R15:R43 Q2:R14" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>0.375</formula1>
       <formula2>0.708333333333333</formula2>
     </dataValidation>
@@ -10177,7 +10173,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A43" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"Facilitator,Guest Speaker"</formula1>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576" xr:uid="{00000000-0002-0000-0400-000004000000}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O15 Q1 Q15:Q1048576" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>0.354166666666667</formula1>
       <formula2>0.708333333333333</formula2>
     </dataValidation>
@@ -10204,7 +10200,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10239,7 +10235,7 @@
       <c r="K2" s="42"/>
       <c r="N2" s="43">
         <f ca="1">TODAY()</f>
-        <v>43738</v>
+        <v>43740</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -10333,7 +10329,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="32">
-        <v>43683</v>
+        <v>43682</v>
       </c>
       <c r="C8" s="9">
         <v>0.41666666666666669</v>
@@ -10383,7 +10379,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="32">
-        <v>43683</v>
+        <v>43682</v>
       </c>
       <c r="C9" s="9">
         <v>0.45833333333333331</v>
@@ -10433,7 +10429,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="32">
-        <v>43683</v>
+        <v>43682</v>
       </c>
       <c r="C10" s="9">
         <v>0.625</v>
@@ -10483,7 +10479,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="32">
-        <v>43684</v>
+        <v>43683</v>
       </c>
       <c r="C11" s="9">
         <v>0.45833333333333331</v>
@@ -10524,7 +10520,7 @@
       <c r="N11" s="6"/>
       <c r="O11">
         <f>IF(AND(B11='Summary - Melbourne'!$C$3,Melbourne!E11='Summary - Melbourne'!$C$2),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -10533,7 +10529,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="32">
-        <v>43684</v>
+        <v>43683</v>
       </c>
       <c r="C12" s="9">
         <v>0.5</v>
@@ -10574,7 +10570,7 @@
       <c r="N12" s="6"/>
       <c r="O12">
         <f>IF(AND(B12='Summary - Melbourne'!$C$3,Melbourne!E12='Summary - Melbourne'!$C$2),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -10583,7 +10579,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="32">
-        <v>43684</v>
+        <v>43683</v>
       </c>
       <c r="C13" s="9">
         <v>0.54166666666666663</v>
@@ -10624,7 +10620,7 @@
       <c r="N13" s="6"/>
       <c r="O13">
         <f>IF(AND(B13='Summary - Melbourne'!$C$3,Melbourne!E13='Summary - Melbourne'!$C$2),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -10633,7 +10629,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="32">
-        <v>43685</v>
+        <v>43684</v>
       </c>
       <c r="C14" s="9">
         <v>0.41666666666666669</v>
@@ -10674,7 +10670,7 @@
       <c r="N14" s="6"/>
       <c r="O14">
         <f>IF(AND(B14='Summary - Melbourne'!$C$3,Melbourne!E14='Summary - Melbourne'!$C$2),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -10683,7 +10679,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="32">
-        <v>43685</v>
+        <v>43684</v>
       </c>
       <c r="C15" s="9">
         <v>0.41666666666666669</v>
@@ -10731,7 +10727,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="32">
-        <v>43685</v>
+        <v>43684</v>
       </c>
       <c r="C16" s="30">
         <v>0.45833333333333331</v>
@@ -10779,7 +10775,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="32">
-        <v>43685</v>
+        <v>43684</v>
       </c>
       <c r="C17" s="30">
         <v>0.45833333333333331</v>
@@ -10820,7 +10816,7 @@
       <c r="N17" s="6"/>
       <c r="O17">
         <f>IF(AND(B17='Summary - Melbourne'!$C$3,Melbourne!E17='Summary - Melbourne'!$C$2),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -10829,7 +10825,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="32">
-        <v>43685</v>
+        <v>43684</v>
       </c>
       <c r="C18" s="30">
         <v>0.5</v>
@@ -10879,7 +10875,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="32">
-        <v>43686</v>
+        <v>43685</v>
       </c>
       <c r="C19" s="9">
         <v>0.41666666666666669</v>
@@ -10925,7 +10921,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="32">
-        <v>43686</v>
+        <v>43685</v>
       </c>
       <c r="C20" s="9">
         <v>0.41666666666666669</v>
@@ -10975,7 +10971,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="32">
-        <v>43686</v>
+        <v>43685</v>
       </c>
       <c r="C21" s="9">
         <v>0.41666666666666669</v>
@@ -11025,7 +11021,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="32">
-        <v>43686</v>
+        <v>43685</v>
       </c>
       <c r="C22" s="9">
         <v>0.41666666666666669</v>
@@ -11075,7 +11071,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="32">
-        <v>43686</v>
+        <v>43685</v>
       </c>
       <c r="C23" s="9">
         <v>0.45833333333333331</v>
@@ -11125,7 +11121,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="32">
-        <v>43686</v>
+        <v>43685</v>
       </c>
       <c r="C24" s="9">
         <v>0.45833333333333331</v>
@@ -11175,7 +11171,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="32">
-        <v>43686</v>
+        <v>43685</v>
       </c>
       <c r="C25" s="30">
         <v>0.5</v>
@@ -11225,7 +11221,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="32">
-        <v>43686</v>
+        <v>43685</v>
       </c>
       <c r="C26" s="30">
         <v>0.5</v>
@@ -11275,7 +11271,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="32">
-        <v>43686</v>
+        <v>43685</v>
       </c>
       <c r="C27" s="30">
         <v>0.52083333333333337</v>
@@ -11325,7 +11321,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="32">
-        <v>43686</v>
+        <v>43685</v>
       </c>
       <c r="C28" s="30">
         <v>0.54166666666666663</v>
@@ -11375,7 +11371,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="32">
-        <v>43686</v>
+        <v>43685</v>
       </c>
       <c r="C29" s="30">
         <v>0.54166666666666663</v>
@@ -11425,7 +11421,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="32">
-        <v>43687</v>
+        <v>43686</v>
       </c>
       <c r="C30" s="9">
         <v>0.375</v>
@@ -11475,7 +11471,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="32">
-        <v>43687</v>
+        <v>43686</v>
       </c>
       <c r="C31" s="9">
         <v>0.41666666666666669</v>
@@ -11525,7 +11521,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="32">
-        <v>43687</v>
+        <v>43686</v>
       </c>
       <c r="C32" s="30">
         <v>0.45833333333333331</v>
@@ -11575,7 +11571,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="32">
-        <v>43687</v>
+        <v>43686</v>
       </c>
       <c r="C33" s="30">
         <v>0.5</v>
@@ -11625,7 +11621,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="32">
-        <v>43687</v>
+        <v>43686</v>
       </c>
       <c r="C34" s="30">
         <v>0.54166666666666663</v>
@@ -11675,7 +11671,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="32">
-        <v>43687</v>
+        <v>43686</v>
       </c>
       <c r="C35" s="30">
         <v>0.54166666666666663</v>

--- a/src/ExcelSheetIO/BigIssueRostering.xlsx
+++ b/src/ExcelSheetIO/BigIssueRostering.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewohalloran/Desktop/swen90014-2019-bi-bilby/src/ExcelSheetIO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joao/Documents/GitHub/swen90014-2019-bi-bilby/src/ExcelSheetIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A923FE-D60F-E64C-90C8-F790BADE0F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C27F0A-676D-3847-93E2-23426C73E3EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6480" windowWidth="33600" windowHeight="20540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Cities" sheetId="7" r:id="rId1"/>
@@ -8210,7 +8210,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L32" sqref="L32"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8366,7 +8366,7 @@
         <v>0.4375</v>
       </c>
       <c r="L2" s="11">
-        <v>0.52083333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="M2" s="11">
         <v>0.47916666666666669</v>

--- a/src/ExcelSheetIO/BigIssueRostering.xlsx
+++ b/src/ExcelSheetIO/BigIssueRostering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joao/Documents/GitHub/swen90014-2019-bi-bilby/src/ExcelSheetIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C27F0A-676D-3847-93E2-23426C73E3EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A87B352-A02C-3F41-AAE6-58B47135199F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6480" windowWidth="33600" windowHeight="20540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Cities" sheetId="7" r:id="rId1"/>
@@ -8206,11 +8206,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="92" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="92" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10723,11 +10723,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Y1207"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11209,10 +11209,10 @@
         <v>43684</v>
       </c>
       <c r="C15" s="9">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D15" s="29">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>7</v>
@@ -11257,10 +11257,10 @@
         <v>43684</v>
       </c>
       <c r="C16" s="29">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="D16" s="9">
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>7</v>
@@ -11305,10 +11305,10 @@
         <v>43684</v>
       </c>
       <c r="C17" s="29">
-        <v>0.45833333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D17" s="9">
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>6</v>
@@ -11355,10 +11355,10 @@
         <v>43684</v>
       </c>
       <c r="C18" s="29">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="D18" s="9">
-        <v>0.54166666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>7</v>
@@ -12251,10 +12251,10 @@
         <v>43687</v>
       </c>
       <c r="C36" s="9">
-        <v>0.625</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D36" s="9">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>7</v>

--- a/src/ExcelSheetIO/BigIssueRostering.xlsx
+++ b/src/ExcelSheetIO/BigIssueRostering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joao/Documents/GitHub/swen90014-2019-bi-bilby/src/ExcelSheetIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A87B352-A02C-3F41-AAE6-58B47135199F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AB31B3-A160-DD43-8E0B-AC8FD248B158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Cities" sheetId="7" r:id="rId1"/>
@@ -8206,11 +8206,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH43"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="92" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="92" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T9" sqref="T9"/>
+      <selection pane="bottomRight" activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10723,7 +10723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Y1207"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/src/ExcelSheetIO/BigIssueRostering.xlsx
+++ b/src/ExcelSheetIO/BigIssueRostering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewohalloran/Desktop/swen90014-2019-bi-bilby/src/ExcelSheetIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A923FE-D60F-E64C-90C8-F790BADE0F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B79C67B-C11A-C943-A950-7277F7BA4C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18760" yWindow="0" windowWidth="18760" windowHeight="21600" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Cities" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="185">
   <si>
     <t>Date</t>
   </si>
@@ -528,9 +528,6 @@
   </si>
   <si>
     <t>VCAL</t>
-  </si>
-  <si>
-    <t>1-6</t>
   </si>
   <si>
     <t>Melb Uni</t>
@@ -6613,13 +6610,13 @@
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="23" t="s">
         <v>168</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -8206,7 +8203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="92" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="92" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8344,17 +8341,17 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="I2" s="11">
         <v>0.66666666666666663</v>
@@ -8394,7 +8391,7 @@
         <v>0.6875</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -8418,17 +8415,17 @@
         <v>143</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I3" s="11">
         <v>0.47916666666666669</v>
@@ -8478,17 +8475,17 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -8542,17 +8539,17 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -8602,17 +8599,17 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I6" s="11">
         <v>0.39583333333333331</v>
@@ -8668,17 +8665,17 @@
         <v>148</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -8728,17 +8725,17 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I8" s="11">
         <v>0.58333333333333337</v>
@@ -8788,17 +8785,17 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -8852,17 +8849,17 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -8912,17 +8909,17 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I11" s="11">
         <v>0.39583333333333331</v>
@@ -8976,17 +8973,17 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I12" s="11">
         <v>0.47916666666666669</v>
@@ -9044,17 +9041,17 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -9104,17 +9101,17 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I14" s="11">
         <v>0.4375</v>
@@ -9172,17 +9169,17 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -9228,21 +9225,21 @@
         <v>48</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="I16" s="11">
         <v>0.39583333333333331</v>
@@ -9292,21 +9289,21 @@
         <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -9356,21 +9353,21 @@
         <v>48</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I18" s="11">
         <v>0.58333333333333337</v>
@@ -9420,17 +9417,17 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I19" s="11">
         <v>0.41666666666666669</v>
@@ -9484,21 +9481,21 @@
         <v>49</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I20" s="11">
         <v>0.41666666666666669</v>
@@ -9548,21 +9545,21 @@
         <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -9612,21 +9609,21 @@
         <v>49</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -9676,21 +9673,21 @@
         <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I23" s="11">
         <v>0.39583333333333331</v>
@@ -9748,23 +9745,23 @@
         <v>49</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -9814,21 +9811,21 @@
         <v>49</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I25" s="11">
         <v>0.39583333333333331</v>
@@ -9878,21 +9875,21 @@
         <v>49</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="I26" s="11">
         <v>0.39583333333333331</v>
@@ -9946,21 +9943,21 @@
         <v>49</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I27" s="11">
         <v>0.625</v>
@@ -10018,21 +10015,21 @@
         <v>48</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I28" s="11">
         <v>0.625</v>
@@ -10082,21 +10079,21 @@
         <v>48</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I29" s="11">
         <v>0.45833333333333331</v>
@@ -10146,21 +10143,21 @@
         <v>48</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I30" s="11">
         <v>0.375</v>
@@ -10209,20 +10206,20 @@
         <v>147</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -10723,11 +10720,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Y1207"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11158,11 +11155,11 @@
       <c r="B14" s="31">
         <v>43684</v>
       </c>
-      <c r="C14" s="9">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D14" s="29">
+      <c r="C14" s="29">
         <v>0.45833333333333331</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.5</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>6</v>
@@ -11174,25 +11171,25 @@
         <v>15</v>
       </c>
       <c r="H14" s="6">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I14" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="K14" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J14,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Mount Clear College</v>
+        <v>City Cite - Plenty Valley Christian College</v>
       </c>
       <c r="L14" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J14,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>bawden.cassandra.j@edumail.vic.gov.au</v>
+        <v>ABarker@citycite.vic.edu.au</v>
       </c>
       <c r="M14" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J14,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>423737490</v>
+        <v>86606703</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14">
@@ -11206,41 +11203,39 @@
         <v>8</v>
       </c>
       <c r="B15" s="31">
-        <v>43684</v>
+        <v>43685</v>
       </c>
       <c r="C15" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="9">
         <v>0.45833333333333331</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="6">
-        <v>8</v>
-      </c>
+      <c r="I15" s="28"/>
       <c r="J15" s="6" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K15" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J15,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Carey Baptist Grammar</v>
-      </c>
-      <c r="L15" s="6" t="str">
+        <v>Melbourne Uni – Big Idea</v>
+      </c>
+      <c r="L15" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J15,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>geoff.trevaskis@carey.com.au"</v>
-      </c>
-      <c r="M15" s="6" t="str">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J15,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>9816 1563</v>
+        <v>0</v>
       </c>
       <c r="N15" s="6"/>
       <c r="O15">
@@ -11254,16 +11249,16 @@
         <v>9</v>
       </c>
       <c r="B16" s="31">
-        <v>43684</v>
-      </c>
-      <c r="C16" s="29">
+        <v>43685</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D16" s="29">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D16" s="9">
-        <v>0.5</v>
-      </c>
       <c r="E16" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>61</v>
@@ -11271,24 +11266,26 @@
       <c r="G16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="6">
+        <v>25</v>
+      </c>
       <c r="I16" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="K16" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J16,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Carey Baptist Grammar</v>
+        <v>Peninsula Grammar</v>
       </c>
       <c r="L16" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J16,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>geoff.trevaskis@carey.com.au"</v>
-      </c>
-      <c r="M16" s="6" t="str">
+        <v>lhickey@peninsulagrammar.vic.edu.au</v>
+      </c>
+      <c r="M16" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J16,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>9816 1563</v>
+        <v>97887664</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16">
@@ -11302,16 +11299,16 @@
         <v>10</v>
       </c>
       <c r="B17" s="31">
-        <v>43684</v>
-      </c>
-      <c r="C17" s="29">
+        <v>43685</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D17" s="29">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D17" s="9">
-        <v>0.5</v>
-      </c>
       <c r="E17" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>61</v>
@@ -11320,25 +11317,25 @@
         <v>15</v>
       </c>
       <c r="H17" s="6">
-        <v>25</v>
-      </c>
-      <c r="I17" s="6">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="K17" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J17,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>City Cite - Plenty Valley Christian College</v>
+        <v>St Francis Xavier College</v>
       </c>
       <c r="L17" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J17,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>ABarker@citycite.vic.edu.au</v>
+        <v>klittle@sfx.vic.edu.au</v>
       </c>
       <c r="M17" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J17,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>86606703</v>
+        <v>417108341</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17">
@@ -11352,43 +11349,43 @@
         <v>11</v>
       </c>
       <c r="B18" s="31">
-        <v>43684</v>
-      </c>
-      <c r="C18" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.54166666666666663</v>
+        <v>43685</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D18" s="29">
+        <v>0.45833333333333331</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H18" s="6">
-        <v>13</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>161</v>
+        <v>20</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K18" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J18,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Buxton Primary School</v>
+        <v>St Francis Xavier College</v>
       </c>
       <c r="L18" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J18,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>bagnall.andrew.a@edumail.vic.gov.au</v>
+        <v>klittle@sfx.vic.edu.au</v>
       </c>
       <c r="M18" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J18,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>431277766</v>
+        <v>417108341</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18">
@@ -11405,36 +11402,40 @@
         <v>43685</v>
       </c>
       <c r="C19" s="9">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D19" s="9">
         <v>0.45833333333333331</v>
       </c>
+      <c r="D19" s="29">
+        <v>0.5</v>
+      </c>
       <c r="E19" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="H19" s="6">
+        <v>20</v>
+      </c>
+      <c r="I19" s="6">
+        <v>7</v>
+      </c>
       <c r="J19" s="6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K19" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J19,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Melbourne Uni – Big Idea</v>
-      </c>
-      <c r="L19" s="6">
+        <v>Eltham High School</v>
+      </c>
+      <c r="L19" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J19,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>0</v>
+        <v>huh@elthamhs.vic.edu.au</v>
       </c>
       <c r="M19" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J19,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>0</v>
+        <v>439631177</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19">
@@ -11450,14 +11451,14 @@
       <c r="B20" s="31">
         <v>43685</v>
       </c>
-      <c r="C20" s="9">
-        <v>0.41666666666666669</v>
+      <c r="C20" s="29">
+        <v>0.54166666666666663</v>
       </c>
       <c r="D20" s="29">
-        <v>0.45833333333333331</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>61</v>
@@ -11466,25 +11467,25 @@
         <v>15</v>
       </c>
       <c r="H20" s="6">
-        <v>25</v>
-      </c>
-      <c r="I20" s="6">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="K20" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J20,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Peninsula Grammar</v>
+        <v>St Francis Xavier College</v>
       </c>
       <c r="L20" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J20,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>lhickey@peninsulagrammar.vic.edu.au</v>
+        <v>klittle@sfx.vic.edu.au</v>
       </c>
       <c r="M20" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J20,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>97887664</v>
+        <v>417108341</v>
       </c>
       <c r="N20" s="6"/>
       <c r="O20">
@@ -11500,17 +11501,17 @@
       <c r="B21" s="31">
         <v>43685</v>
       </c>
-      <c r="C21" s="9">
-        <v>0.41666666666666669</v>
+      <c r="C21" s="29">
+        <v>0.54166666666666663</v>
       </c>
       <c r="D21" s="29">
-        <v>0.45833333333333331</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>15</v>
@@ -11548,43 +11549,43 @@
         <v>15</v>
       </c>
       <c r="B22" s="31">
-        <v>43685</v>
+        <v>43686</v>
       </c>
       <c r="C22" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D22" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D22" s="29">
-        <v>0.45833333333333331</v>
-      </c>
       <c r="E22" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="6">
-        <v>20</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>160</v>
+        <v>18</v>
+      </c>
+      <c r="I22" s="6">
+        <v>9</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="K22" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J22,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>St Francis Xavier College</v>
+        <v>Mentone Grammar</v>
       </c>
       <c r="L22" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J22,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>klittle@sfx.vic.edu.au</v>
+        <v>tfd@mentonegrammar.net</v>
       </c>
       <c r="M22" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J22,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>417108341</v>
+        <v>431747640</v>
       </c>
       <c r="N22" s="6"/>
       <c r="O22">
@@ -11598,13 +11599,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="31">
-        <v>43685</v>
+        <v>43686</v>
       </c>
       <c r="C23" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D23" s="29">
         <v>0.45833333333333331</v>
-      </c>
-      <c r="D23" s="29">
-        <v>0.5</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>6</v>
@@ -11616,25 +11617,25 @@
         <v>15</v>
       </c>
       <c r="H23" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I23" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="K23" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J23,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Eltham High School</v>
+        <v>Williamstown High School</v>
       </c>
       <c r="L23" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J23,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>huh@elthamhs.vic.edu.au</v>
+        <v>clifford.gavin.c@edumail.vic.gov.au</v>
       </c>
       <c r="M23" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J23,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>439631177</v>
+        <v>93971899</v>
       </c>
       <c r="N23" s="6"/>
       <c r="O23">
@@ -11648,16 +11649,16 @@
         <v>17</v>
       </c>
       <c r="B24" s="31">
-        <v>43685</v>
-      </c>
-      <c r="C24" s="9">
-        <v>0.45833333333333331</v>
+        <v>43686</v>
+      </c>
+      <c r="C24" s="29">
+        <v>0.54166666666666663</v>
       </c>
       <c r="D24" s="29">
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>61</v>
@@ -11665,26 +11666,26 @@
       <c r="G24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="6">
-        <v>14</v>
-      </c>
-      <c r="I24" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>160</v>
       </c>
+      <c r="I24" s="6">
+        <v>15</v>
+      </c>
       <c r="J24" s="6" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="K24" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J24,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Whittlesea Secondary College</v>
+        <v>Lakeview Senior College</v>
       </c>
       <c r="L24" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J24,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>elovaris.janet.j@edumail.vic.gov.au</v>
-      </c>
-      <c r="M24" s="6" t="str">
+        <v>charper.katharine.v@edumail.vic.gov.au</v>
+      </c>
+      <c r="M24" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J24,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Sarah Perry - 0466090784</v>
+        <v>432801338</v>
       </c>
       <c r="N24" s="6"/>
       <c r="O24">
@@ -11698,13 +11699,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="31">
-        <v>43685</v>
+        <v>43686</v>
       </c>
       <c r="C25" s="29">
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D25" s="29">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>7</v>
@@ -11716,25 +11717,25 @@
         <v>15</v>
       </c>
       <c r="H25" s="6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I25" s="6">
         <v>9</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K25" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J25,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Albert Park College</v>
+        <v>Williamstown High School</v>
       </c>
       <c r="L25" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J25,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>chloelemerle@albertparkcollege.vic.edu.au</v>
+        <v>clifford.gavin.c@edumail.vic.gov.au</v>
       </c>
       <c r="M25" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J25,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>475414701</v>
+        <v>93971899</v>
       </c>
       <c r="N25" s="6"/>
       <c r="O25">
@@ -11747,45 +11748,18 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B26" s="31">
-        <v>43685</v>
-      </c>
-      <c r="C26" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="D26" s="29">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="6">
-        <v>25</v>
-      </c>
-      <c r="I26" s="6">
-        <v>9</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="K26" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J26,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Copperfield College</v>
-      </c>
-      <c r="L26" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J26,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>lane.tanya.t@edumail.vic.gov.au</v>
-      </c>
-      <c r="M26" s="6">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J26,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>416864965</v>
-      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26">
         <f>IF(AND(B26='Summary - Melbourne'!$C$3,Melbourne!E26='Summary - Melbourne'!$C$2),O25+1,0)</f>
@@ -11797,45 +11771,18 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B27" s="31">
-        <v>43685</v>
-      </c>
-      <c r="C27" s="29">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D27" s="29">
-        <v>0.5625</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="6">
-        <v>20</v>
-      </c>
-      <c r="I27" s="6">
-        <v>7</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="K27" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J27,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Eltham High School</v>
-      </c>
-      <c r="L27" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J27,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>huh@elthamhs.vic.edu.au</v>
-      </c>
-      <c r="M27" s="6">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J27,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>439631177</v>
-      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27">
         <f>IF(AND(B27='Summary - Melbourne'!$C$3,Melbourne!E27='Summary - Melbourne'!$C$2),O26+1,0)</f>
@@ -11847,45 +11794,18 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B28" s="31">
-        <v>43685</v>
-      </c>
-      <c r="C28" s="29">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D28" s="29">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="6">
-        <v>20</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="K28" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J28,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>St Francis Xavier College</v>
-      </c>
-      <c r="L28" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J28,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>klittle@sfx.vic.edu.au</v>
-      </c>
-      <c r="M28" s="6">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J28,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>417108341</v>
-      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28">
         <f>IF(AND(B28='Summary - Melbourne'!$C$3,Melbourne!E28='Summary - Melbourne'!$C$2),O27+1,0)</f>
@@ -11897,45 +11817,18 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B29" s="31">
-        <v>43685</v>
-      </c>
-      <c r="C29" s="29">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D29" s="29">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="6">
-        <v>20</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="K29" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J29,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>St Francis Xavier College</v>
-      </c>
-      <c r="L29" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J29,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>klittle@sfx.vic.edu.au</v>
-      </c>
-      <c r="M29" s="6">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J29,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>417108341</v>
-      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29">
         <f>IF(AND(B29='Summary - Melbourne'!$C$3,Melbourne!E29='Summary - Melbourne'!$C$2),O28+1,0)</f>
@@ -11947,45 +11840,18 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B30" s="31">
-        <v>43686</v>
-      </c>
-      <c r="C30" s="9">
-        <v>0.375</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="6">
-        <v>18</v>
-      </c>
-      <c r="I30" s="6">
-        <v>9</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="K30" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J30,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Mentone Grammar</v>
-      </c>
-      <c r="L30" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J30,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>tfd@mentonegrammar.net</v>
-      </c>
-      <c r="M30" s="6">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J30,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>431747640</v>
-      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30">
         <f>IF(AND(B30='Summary - Melbourne'!$C$3,Melbourne!E30='Summary - Melbourne'!$C$2),O29+1,0)</f>
@@ -11997,45 +11863,18 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B31" s="31">
-        <v>43686</v>
-      </c>
-      <c r="C31" s="9">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D31" s="29">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="6">
-        <v>25</v>
-      </c>
-      <c r="I31" s="6">
-        <v>9</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="K31" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J31,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Williamstown High School</v>
-      </c>
-      <c r="L31" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J31,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>clifford.gavin.c@edumail.vic.gov.au</v>
-      </c>
-      <c r="M31" s="6">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J31,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>93971899</v>
-      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31">
         <f>IF(AND(B31='Summary - Melbourne'!$C$3,Melbourne!E31='Summary - Melbourne'!$C$2),O30+1,0)</f>
@@ -12047,45 +11886,18 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B32" s="31">
-        <v>43686</v>
-      </c>
-      <c r="C32" s="29">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D32" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="6">
-        <v>20</v>
-      </c>
-      <c r="I32" s="6">
-        <v>7</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="K32" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J32,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Eltham High School</v>
-      </c>
-      <c r="L32" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J32,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>huh@elthamhs.vic.edu.au</v>
-      </c>
-      <c r="M32" s="6">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J32,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>439631177</v>
-      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32">
         <f>IF(AND(B32='Summary - Melbourne'!$C$3,Melbourne!E32='Summary - Melbourne'!$C$2),O31+1,0)</f>
@@ -12097,45 +11909,18 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B33" s="31">
-        <v>43686</v>
-      </c>
-      <c r="C33" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="D33" s="29">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="6">
-        <v>20</v>
-      </c>
-      <c r="I33" s="6">
-        <v>7</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="K33" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J33,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Eltham High School</v>
-      </c>
-      <c r="L33" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J33,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>huh@elthamhs.vic.edu.au</v>
-      </c>
-      <c r="M33" s="6">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J33,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>439631177</v>
-      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33">
         <f>IF(AND(B33='Summary - Melbourne'!$C$3,Melbourne!E33='Summary - Melbourne'!$C$2),O32+1,0)</f>
@@ -12147,45 +11932,18 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B34" s="31">
-        <v>43686</v>
-      </c>
-      <c r="C34" s="29">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D34" s="29">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="I34" s="6">
-        <v>15</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K34" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J34,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Lakeview Senior College</v>
-      </c>
-      <c r="L34" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J34,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>charper.katharine.v@edumail.vic.gov.au</v>
-      </c>
-      <c r="M34" s="6">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J34,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>432801338</v>
-      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34">
         <f>IF(AND(B34='Summary - Melbourne'!$C$3,Melbourne!E34='Summary - Melbourne'!$C$2),O33+1,0)</f>
@@ -12197,45 +11955,18 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B35" s="31">
-        <v>43686</v>
-      </c>
-      <c r="C35" s="29">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D35" s="29">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="6">
-        <v>25</v>
-      </c>
-      <c r="I35" s="6">
-        <v>9</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="K35" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J35,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Williamstown High School</v>
-      </c>
-      <c r="L35" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J35,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>clifford.gavin.c@edumail.vic.gov.au</v>
-      </c>
-      <c r="M35" s="6">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J35,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>93971899</v>
-      </c>
+      <c r="B35" s="31"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35">
         <f>IF(AND(B35='Summary - Melbourne'!$C$3,Melbourne!E35='Summary - Melbourne'!$C$2),O34+1,0)</f>
@@ -12247,44 +11978,20 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B36" s="31">
-        <v>43687</v>
-      </c>
-      <c r="C36" s="9">
-        <v>0.625</v>
-      </c>
-      <c r="D36" s="9">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="6">
-        <v>25</v>
-      </c>
-      <c r="I36" s="6">
-        <v>9</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K36" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J36,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Peninsula Grammar</v>
-      </c>
-      <c r="L36" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J36,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>lhickey@peninsulagrammar.vic.edu.au</v>
-      </c>
-      <c r="M36" s="6">
+      <c r="B36" s="31"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J36,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>97887664</v>
+        <v/>
       </c>
       <c r="N36" s="6"/>
       <c r="O36">
@@ -12297,44 +12004,20 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B37" s="31">
-        <v>43687</v>
-      </c>
-      <c r="C37" s="29">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D37" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="6">
-        <v>25</v>
-      </c>
-      <c r="I37" s="6">
-        <v>7</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K37" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J37,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Doxa - Lumen Christi School</v>
-      </c>
-      <c r="L37" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J37,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>tmcinerney@doxa.org.au</v>
-      </c>
-      <c r="M37" s="6">
+      <c r="B37" s="31"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J37,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>90468200</v>
+        <v/>
       </c>
       <c r="N37" s="6"/>
       <c r="O37">
@@ -12347,44 +12030,20 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B38" s="31">
-        <v>43687</v>
-      </c>
-      <c r="C38" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="D38" s="29">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="6">
-        <v>25</v>
-      </c>
-      <c r="I38" s="6">
-        <v>7</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="K38" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J38,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>St Francis Xavier College</v>
-      </c>
-      <c r="L38" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J38,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>klittle@sfx.vic.edu.au</v>
-      </c>
-      <c r="M38" s="6">
+      <c r="B38" s="31"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J38,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>417108341</v>
+        <v/>
       </c>
       <c r="N38" s="6"/>
       <c r="O38">

--- a/src/ExcelSheetIO/BigIssueRostering.xlsx
+++ b/src/ExcelSheetIO/BigIssueRostering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewohalloran/Desktop/swen90014-2019-bi-bilby/src/ExcelSheetIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B79C67B-C11A-C943-A950-7277F7BA4C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4C509F-2752-0C40-85A1-6E8EFF1A3045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18760" yWindow="0" windowWidth="18760" windowHeight="21600" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Cities" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="185">
   <si>
     <t>Date</t>
   </si>
@@ -10721,10 +10721,10 @@
   <dimension ref="A1:Y1207"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11153,43 +11153,39 @@
         <v>7</v>
       </c>
       <c r="B14" s="31">
-        <v>43684</v>
-      </c>
-      <c r="C14" s="29">
+        <v>43685</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D14" s="9">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D14" s="9">
-        <v>0.5</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="6">
-        <v>25</v>
-      </c>
-      <c r="I14" s="6">
-        <v>9</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="6" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="K14" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J14,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>City Cite - Plenty Valley Christian College</v>
-      </c>
-      <c r="L14" s="6" t="str">
+        <v>Melbourne Uni – Big Idea</v>
+      </c>
+      <c r="L14" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J14,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>ABarker@citycite.vic.edu.au</v>
+        <v>0</v>
       </c>
       <c r="M14" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J14,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>86606703</v>
+        <v>0</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14">
@@ -11208,34 +11204,38 @@
       <c r="C15" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="29">
         <v>0.45833333333333331</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="H15" s="6">
+        <v>25</v>
+      </c>
+      <c r="I15" s="6">
+        <v>9</v>
+      </c>
       <c r="J15" s="6" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="K15" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J15,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Melbourne Uni – Big Idea</v>
-      </c>
-      <c r="L15" s="6">
+        <v>Peninsula Grammar</v>
+      </c>
+      <c r="L15" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J15,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>0</v>
+        <v>lhickey@peninsulagrammar.vic.edu.au</v>
       </c>
       <c r="M15" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J15,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>0</v>
+        <v>97887664</v>
       </c>
       <c r="N15" s="6"/>
       <c r="O15">
@@ -11258,7 +11258,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>61</v>
@@ -11267,25 +11267,25 @@
         <v>15</v>
       </c>
       <c r="H16" s="6">
-        <v>25</v>
-      </c>
-      <c r="I16" s="6">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="K16" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J16,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Peninsula Grammar</v>
+        <v>St Francis Xavier College</v>
       </c>
       <c r="L16" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J16,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>lhickey@peninsulagrammar.vic.edu.au</v>
+        <v>klittle@sfx.vic.edu.au</v>
       </c>
       <c r="M16" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J16,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>97887664</v>
+        <v>417108341</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16">
@@ -11308,10 +11308,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>15</v>
@@ -11352,16 +11352,16 @@
         <v>43685</v>
       </c>
       <c r="C18" s="9">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D18" s="29">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>15</v>
@@ -11369,23 +11369,23 @@
       <c r="H18" s="6">
         <v>20</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>160</v>
+      <c r="I18" s="6">
+        <v>7</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K18" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J18,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>St Francis Xavier College</v>
+        <v>Eltham High School</v>
       </c>
       <c r="L18" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J18,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>klittle@sfx.vic.edu.au</v>
+        <v>huh@elthamhs.vic.edu.au</v>
       </c>
       <c r="M18" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J18,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>417108341</v>
+        <v>439631177</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18">
@@ -11401,14 +11401,14 @@
       <c r="B19" s="31">
         <v>43685</v>
       </c>
-      <c r="C19" s="9">
-        <v>0.45833333333333331</v>
+      <c r="C19" s="29">
+        <v>0.54166666666666663</v>
       </c>
       <c r="D19" s="29">
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>61</v>
@@ -11419,23 +11419,23 @@
       <c r="H19" s="6">
         <v>20</v>
       </c>
-      <c r="I19" s="6">
-        <v>7</v>
+      <c r="I19" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K19" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J19,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Eltham High School</v>
+        <v>St Francis Xavier College</v>
       </c>
       <c r="L19" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J19,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>huh@elthamhs.vic.edu.au</v>
+        <v>klittle@sfx.vic.edu.au</v>
       </c>
       <c r="M19" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J19,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>439631177</v>
+        <v>417108341</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19">
@@ -11458,10 +11458,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>15</v>
@@ -11499,43 +11499,43 @@
         <v>14</v>
       </c>
       <c r="B21" s="31">
-        <v>43685</v>
-      </c>
-      <c r="C21" s="29">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D21" s="29">
-        <v>0.58333333333333337</v>
+        <v>43686</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.41666666666666669</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="6">
-        <v>20</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>160</v>
+        <v>18</v>
+      </c>
+      <c r="I21" s="6">
+        <v>9</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="K21" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J21,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>St Francis Xavier College</v>
+        <v>Mentone Grammar</v>
       </c>
       <c r="L21" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J21,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>klittle@sfx.vic.edu.au</v>
+        <v>tfd@mentonegrammar.net</v>
       </c>
       <c r="M21" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J21,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>417108341</v>
+        <v>431747640</v>
       </c>
       <c r="N21" s="6"/>
       <c r="O21">
@@ -11552,10 +11552,10 @@
         <v>43686</v>
       </c>
       <c r="C22" s="9">
-        <v>0.375</v>
-      </c>
-      <c r="D22" s="9">
         <v>0.41666666666666669</v>
+      </c>
+      <c r="D22" s="29">
+        <v>0.45833333333333331</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>6</v>
@@ -11567,25 +11567,25 @@
         <v>15</v>
       </c>
       <c r="H22" s="6">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I22" s="6">
         <v>9</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K22" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J22,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Mentone Grammar</v>
+        <v>Williamstown High School</v>
       </c>
       <c r="L22" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J22,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>tfd@mentonegrammar.net</v>
+        <v>clifford.gavin.c@edumail.vic.gov.au</v>
       </c>
       <c r="M22" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J22,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>431747640</v>
+        <v>93971899</v>
       </c>
       <c r="N22" s="6"/>
       <c r="O22">
@@ -11601,11 +11601,11 @@
       <c r="B23" s="31">
         <v>43686</v>
       </c>
-      <c r="C23" s="9">
-        <v>0.41666666666666669</v>
+      <c r="C23" s="29">
+        <v>0.54166666666666663</v>
       </c>
       <c r="D23" s="29">
-        <v>0.45833333333333331</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>6</v>
@@ -11616,26 +11616,26 @@
       <c r="G23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="6">
-        <v>25</v>
+      <c r="H23" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="I23" s="6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K23" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J23,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Williamstown High School</v>
+        <v>Lakeview Senior College</v>
       </c>
       <c r="L23" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J23,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>clifford.gavin.c@edumail.vic.gov.au</v>
+        <v>charper.katharine.v@edumail.vic.gov.au</v>
       </c>
       <c r="M23" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J23,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>93971899</v>
+        <v>432801338</v>
       </c>
       <c r="N23" s="6"/>
       <c r="O23">
@@ -11658,7 +11658,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>61</v>
@@ -11666,26 +11666,26 @@
       <c r="G24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>160</v>
+      <c r="H24" s="6">
+        <v>25</v>
       </c>
       <c r="I24" s="6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K24" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J24,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Lakeview Senior College</v>
+        <v>Williamstown High School</v>
       </c>
       <c r="L24" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J24,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>charper.katharine.v@edumail.vic.gov.au</v>
+        <v>clifford.gavin.c@edumail.vic.gov.au</v>
       </c>
       <c r="M24" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J24,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>432801338</v>
+        <v>93971899</v>
       </c>
       <c r="N24" s="6"/>
       <c r="O24">
@@ -11698,45 +11698,18 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" s="31">
-        <v>43686</v>
-      </c>
-      <c r="C25" s="29">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D25" s="29">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="6">
-        <v>25</v>
-      </c>
-      <c r="I25" s="6">
-        <v>9</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="K25" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J25,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Williamstown High School</v>
-      </c>
-      <c r="L25" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J25,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>clifford.gavin.c@edumail.vic.gov.au</v>
-      </c>
-      <c r="M25" s="6">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J25,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>93971899</v>
-      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25">
         <f>IF(AND(B25='Summary - Melbourne'!$C$3,Melbourne!E25='Summary - Melbourne'!$C$2),O24+1,0)</f>

--- a/src/ExcelSheetIO/BigIssueRostering.xlsx
+++ b/src/ExcelSheetIO/BigIssueRostering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewohalloran/Desktop/swen90014-2019-bi-bilby/src/ExcelSheetIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4C509F-2752-0C40-85A1-6E8EFF1A3045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8F706C-2056-8140-9E12-37723C1EE13F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="19940" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Cities" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="185">
   <si>
     <t>Date</t>
   </si>
@@ -10724,7 +10724,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25:M25"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11608,7 +11608,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>61</v>
@@ -11623,19 +11623,19 @@
         <v>15</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="K23" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J23,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Lakeview Senior College</v>
+        <v>Peninsula Grammar</v>
       </c>
       <c r="L23" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J23,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>charper.katharine.v@edumail.vic.gov.au</v>
+        <v>lhickey@peninsulagrammar.vic.edu.au</v>
       </c>
       <c r="M23" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J23,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>432801338</v>
+        <v>97887664</v>
       </c>
       <c r="N23" s="6"/>
       <c r="O23">
@@ -11658,7 +11658,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>61</v>
@@ -11673,19 +11673,19 @@
         <v>9</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="K24" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J24,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Williamstown High School</v>
+        <v>City Cite - Plenty Valley Christian College</v>
       </c>
       <c r="L24" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J24,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>clifford.gavin.c@edumail.vic.gov.au</v>
+        <v>ABarker@citycite.vic.edu.au</v>
       </c>
       <c r="M24" s="6">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J24,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>93971899</v>
+        <v>86606703</v>
       </c>
       <c r="N24" s="6"/>
       <c r="O24">
@@ -11698,18 +11698,45 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="B25" s="31">
+        <v>43682</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="6">
+        <v>27</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="J25" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" s="6" t="str">
+        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J25,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
+        <v>Noble Park Secondary College</v>
+      </c>
+      <c r="L25" s="6" t="str">
+        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J25,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
+        <v>barry.trevor.m@edumail.vic.gov.au</v>
+      </c>
+      <c r="M25" s="6">
+        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J25,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
+        <v>423624108</v>
+      </c>
       <c r="N25" s="6"/>
       <c r="O25">
         <f>IF(AND(B25='Summary - Melbourne'!$C$3,Melbourne!E25='Summary - Melbourne'!$C$2),O24+1,0)</f>
@@ -11721,18 +11748,45 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+      <c r="B26" s="31">
+        <v>43682</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="6">
+        <v>25</v>
+      </c>
+      <c r="I26" s="6">
+        <v>9</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26" s="6" t="str">
+        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J26,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
+        <v>Mount Clear College</v>
+      </c>
+      <c r="L26" s="6" t="str">
+        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J26,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
+        <v>bawden.cassandra.j@edumail.vic.gov.au</v>
+      </c>
+      <c r="M26" s="6">
+        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J26,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
+        <v>423737490</v>
+      </c>
       <c r="N26" s="6"/>
       <c r="O26">
         <f>IF(AND(B26='Summary - Melbourne'!$C$3,Melbourne!E26='Summary - Melbourne'!$C$2),O25+1,0)</f>
@@ -11744,18 +11798,45 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
+      <c r="B27" s="31">
+        <v>43683</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="6">
+        <v>25</v>
+      </c>
+      <c r="I27" s="6">
+        <v>9</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K27" s="6" t="str">
+        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J27,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
+        <v>Carey Baptist Grammar</v>
+      </c>
+      <c r="L27" s="6" t="str">
+        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J27,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
+        <v>geoff.trevaskis@carey.com.au"</v>
+      </c>
+      <c r="M27" s="6" t="str">
+        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J27,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
+        <v>9816 1563</v>
+      </c>
       <c r="N27" s="6"/>
       <c r="O27">
         <f>IF(AND(B27='Summary - Melbourne'!$C$3,Melbourne!E27='Summary - Melbourne'!$C$2),O26+1,0)</f>
@@ -11767,18 +11848,45 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
+      <c r="B28" s="31">
+        <v>43683</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="6">
+        <v>20</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" s="6" t="str">
+        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J28,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
+        <v>Carey Baptist Grammar</v>
+      </c>
+      <c r="L28" s="6" t="str">
+        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J28,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
+        <v>geoff.trevaskis@carey.com.au"</v>
+      </c>
+      <c r="M28" s="6" t="str">
+        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J28,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
+        <v>9816 1563</v>
+      </c>
       <c r="N28" s="6"/>
       <c r="O28">
         <f>IF(AND(B28='Summary - Melbourne'!$C$3,Melbourne!E28='Summary - Melbourne'!$C$2),O27+1,0)</f>
@@ -11790,18 +11898,45 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
+      <c r="B29" s="31">
+        <v>43683</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="6">
+        <v>25</v>
+      </c>
+      <c r="I29" s="6">
+        <v>9</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K29" s="6" t="str">
+        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J29,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
+        <v>Carey Baptist Grammar</v>
+      </c>
+      <c r="L29" s="6" t="str">
+        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J29,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
+        <v>geoff.trevaskis@carey.com.au"</v>
+      </c>
+      <c r="M29" s="6" t="str">
+        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J29,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
+        <v>9816 1563</v>
+      </c>
       <c r="N29" s="6"/>
       <c r="O29">
         <f>IF(AND(B29='Summary - Melbourne'!$C$3,Melbourne!E29='Summary - Melbourne'!$C$2),O28+1,0)</f>

--- a/src/ExcelSheetIO/BigIssueRostering.xlsx
+++ b/src/ExcelSheetIO/BigIssueRostering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewohalloran/Desktop/swen90014-2019-bi-bilby/src/ExcelSheetIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8F706C-2056-8140-9E12-37723C1EE13F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7230BDAC-52B2-1847-8C51-710343328C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="19940" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="185">
   <si>
     <t>Date</t>
   </si>
@@ -10724,7 +10724,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11798,45 +11798,18 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B27" s="31">
-        <v>43683</v>
-      </c>
-      <c r="C27" s="9">
-        <v>0</v>
-      </c>
-      <c r="D27" s="9">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="6">
-        <v>25</v>
-      </c>
-      <c r="I27" s="6">
-        <v>9</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K27" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J27,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Carey Baptist Grammar</v>
-      </c>
-      <c r="L27" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J27,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>geoff.trevaskis@carey.com.au"</v>
-      </c>
-      <c r="M27" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J27,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>9816 1563</v>
-      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27">
         <f>IF(AND(B27='Summary - Melbourne'!$C$3,Melbourne!E27='Summary - Melbourne'!$C$2),O26+1,0)</f>
@@ -11848,45 +11821,18 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B28" s="31">
-        <v>43683</v>
-      </c>
-      <c r="C28" s="9">
-        <v>0.625</v>
-      </c>
-      <c r="D28" s="9">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="6">
-        <v>20</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K28" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J28,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Carey Baptist Grammar</v>
-      </c>
-      <c r="L28" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J28,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>geoff.trevaskis@carey.com.au"</v>
-      </c>
-      <c r="M28" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J28,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>9816 1563</v>
-      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28">
         <f>IF(AND(B28='Summary - Melbourne'!$C$3,Melbourne!E28='Summary - Melbourne'!$C$2),O27+1,0)</f>
@@ -11898,45 +11844,18 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B29" s="31">
-        <v>43683</v>
-      </c>
-      <c r="C29" s="9">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D29" s="9">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="6">
-        <v>25</v>
-      </c>
-      <c r="I29" s="6">
-        <v>9</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K29" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J29,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>Carey Baptist Grammar</v>
-      </c>
-      <c r="L29" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J29,'Contact Information'!$A$3:$A$625,0),MATCH(L$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>geoff.trevaskis@carey.com.au"</v>
-      </c>
-      <c r="M29" s="6" t="str">
-        <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J29,'Contact Information'!$A$3:$A$625,0),MATCH(M$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
-        <v>9816 1563</v>
-      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29">
         <f>IF(AND(B29='Summary - Melbourne'!$C$3,Melbourne!E29='Summary - Melbourne'!$C$2),O28+1,0)</f>

--- a/src/ExcelSheetIO/BigIssueRostering.xlsx
+++ b/src/ExcelSheetIO/BigIssueRostering.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewohalloran/Desktop/swen90014-2019-bi-bilby/src/ExcelSheetIO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joao/Documents/GitHub/swen90014-2019-bi-bilby/src/ExcelSheetIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7230BDAC-52B2-1847-8C51-710343328C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC644DD-7B89-EB40-9C7C-71D447D35E00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="19940" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Cities" sheetId="7" r:id="rId1"/>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="G6" s="6" t="str">
         <f>IFERROR(INDEX(Melbourne!$B$8:$N$107,MATCH($A6,Melbourne!$O$8:$O$107,0),MATCH('Summary - Melbourne'!G$5,Melbourne!$B$7:$N$7,0)),"")</f>
-        <v>DHD</v>
+        <v>C</v>
       </c>
       <c r="H6" s="6">
         <f>IFERROR(INDEX(Melbourne!$B$8:$N$107,MATCH($A6,Melbourne!$O$8:$O$107,0),MATCH('Summary - Melbourne'!H$5,Melbourne!$B$7:$N$7,0)),"")</f>
@@ -6576,7 +6576,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6831,7 +6831,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -10724,7 +10724,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27:M29"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10759,7 +10759,7 @@
       <c r="K2" s="41"/>
       <c r="N2" s="42">
         <f ca="1">TODAY()</f>
-        <v>43740</v>
+        <v>43741</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -11018,7 +11018,7 @@
         <v>61</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H11" s="6">
         <v>25</v>
@@ -11314,7 +11314,7 @@
         <v>162</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H17" s="6">
         <v>20</v>
@@ -11564,7 +11564,7 @@
         <v>61</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H22" s="6">
         <v>25</v>

--- a/src/ExcelSheetIO/BigIssueRostering.xlsx
+++ b/src/ExcelSheetIO/BigIssueRostering.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joao/Documents/GitHub/swen90014-2019-bi-bilby/src/ExcelSheetIO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewohalloran/Desktop/swen90014-2019-bi-bilby/src/ExcelSheetIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC644DD-7B89-EB40-9C7C-71D447D35E00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F661E4E-020B-AF47-A08E-546C5F2DCDDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Cities" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="191">
   <si>
     <t>Date</t>
   </si>
@@ -542,9 +542,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>ddddddd</t>
-  </si>
-  <si>
     <t xml:space="preserve">Workshop </t>
   </si>
   <si>
@@ -600,6 +597,27 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>P123,DHD</t>
+  </si>
+  <si>
+    <t>P123,HHIe</t>
+  </si>
+  <si>
+    <t>P123,DHD,HHIe</t>
+  </si>
+  <si>
+    <t>P123,DHD,HHIe,C</t>
+  </si>
+  <si>
+    <t>01/02/2019 - 05/02/2019</t>
+  </si>
+  <si>
+    <t>07/02/2019 - 10/02/2019</t>
+  </si>
+  <si>
+    <t>01/07/2019 - 05/07/2019</t>
   </si>
 </sst>
 </file>
@@ -6576,7 +6594,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6610,13 +6628,13 @@
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="23" t="s">
         <v>167</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -8203,11 +8221,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH43"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="92" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="92" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L32" sqref="L32"/>
+      <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8341,14 +8359,14 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>164</v>
@@ -8387,12 +8405,10 @@
       <c r="T2" s="11"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
-      <c r="W2" s="11">
-        <v>0.6875</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>165</v>
-      </c>
+      <c r="W2" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
@@ -8415,14 +8431,14 @@
         <v>143</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>163</v>
@@ -8475,14 +8491,14 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>163</v>
@@ -8539,14 +8555,14 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>163</v>
@@ -8577,7 +8593,9 @@
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
+      <c r="W5" s="11" t="s">
+        <v>189</v>
+      </c>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
@@ -8599,14 +8617,14 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>163</v>
@@ -8665,14 +8683,14 @@
         <v>148</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>163</v>
@@ -8725,14 +8743,14 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>163</v>
@@ -8785,14 +8803,14 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>163</v>
@@ -8849,14 +8867,14 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>163</v>
@@ -8909,14 +8927,14 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>163</v>
@@ -8951,7 +8969,9 @@
       </c>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
+      <c r="W11" s="11" t="s">
+        <v>190</v>
+      </c>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
@@ -8973,14 +8993,14 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>163</v>
@@ -9041,14 +9061,14 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>163</v>
@@ -9101,14 +9121,14 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>163</v>
@@ -9169,14 +9189,14 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>163</v>
@@ -9225,19 +9245,17 @@
         <v>48</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
         <v>164</v>
       </c>
@@ -9289,19 +9307,17 @@
         <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>164</v>
-      </c>
+      <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
         <v>163</v>
       </c>
@@ -9353,18 +9369,18 @@
         <v>48</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>163</v>
@@ -9417,14 +9433,14 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>163</v>
@@ -9481,18 +9497,18 @@
         <v>49</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>163</v>
@@ -9545,18 +9561,18 @@
         <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>163</v>
@@ -9609,18 +9625,18 @@
         <v>49</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>163</v>
@@ -9673,18 +9689,18 @@
         <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>163</v>
@@ -9745,20 +9761,20 @@
         <v>49</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>163</v>
@@ -9811,19 +9827,17 @@
         <v>49</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
         <v>163</v>
       </c>
@@ -9875,18 +9889,18 @@
         <v>49</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>164</v>
@@ -9943,18 +9957,18 @@
         <v>49</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>163</v>
@@ -10015,18 +10029,18 @@
         <v>48</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>163</v>
@@ -10079,18 +10093,18 @@
         <v>48</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>163</v>
@@ -10143,18 +10157,18 @@
         <v>48</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>163</v>
@@ -10206,17 +10220,17 @@
         <v>147</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>163</v>
@@ -10682,14 +10696,14 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2 I2:J2 I3 K2:N43 Q2:R24 Q27:R27 P25:P26 J29:J30 I4:J28 I31:J43 O19:P21 P22:P23 O24:P24 O27:P43 P2:P18 R25:R26 R28:R43 S2:V43" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:V43 I2:J2 I3 K2:N43 Q2:R24 Q27:R27 P25:P26 J29:J30 I4:J28 I31:J43 O19:P21 P22:P23 O24:P24 O27:P43 P2:P18 R25:R26 R28:R43" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>0.375</formula1>
       <formula2>0.708333333333333</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F43" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"Melbourne,Sydney,Canberra"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H43" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H43" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A43" xr:uid="{00000000-0002-0000-0400-000003000000}">
@@ -10720,11 +10734,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Y1207"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10759,7 +10773,7 @@
       <c r="K2" s="41"/>
       <c r="N2" s="42">
         <f ca="1">TODAY()</f>
-        <v>43741</v>
+        <v>43744</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">

--- a/src/ExcelSheetIO/BigIssueRostering.xlsx
+++ b/src/ExcelSheetIO/BigIssueRostering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewohalloran/Desktop/swen90014-2019-bi-bilby/src/ExcelSheetIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F661E4E-020B-AF47-A08E-546C5F2DCDDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3623A8AE-E8CB-C047-B109-D555867F3B0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Melbourne!$B$7:$G$1207</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Contact Information'!$A$1:$E$147</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Facilitators | GuestSpeakers'!$A$1:$AH$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Facilitators | GuestSpeakers'!$A$1:$AN$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Summary - Melbourne'!$A$1:$R$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="194">
   <si>
     <t>Date</t>
   </si>
@@ -275,25 +275,7 @@
     <t>Monday Available Until</t>
   </si>
   <si>
-    <t>Specific Unavailability 1</t>
-  </si>
-  <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Specific Unavailability 2</t>
-  </si>
-  <si>
-    <t>Specific Unavailability 3</t>
-  </si>
-  <si>
-    <t>Specific Unavailability 4</t>
-  </si>
-  <si>
-    <t>Specific Unavailability 5</t>
-  </si>
-  <si>
-    <t>Specific Unavailability 6</t>
   </si>
   <si>
     <t>Totals</t>
@@ -611,13 +593,40 @@
     <t>P123,DHD,HHIe,C</t>
   </si>
   <si>
-    <t>01/02/2019 - 05/02/2019</t>
+    <t>Specific Unavailability 1 From</t>
   </si>
   <si>
-    <t>07/02/2019 - 10/02/2019</t>
+    <t>Specific Unavailability 1 To</t>
   </si>
   <si>
-    <t>01/07/2019 - 05/07/2019</t>
+    <t>Specific Unavailability 2 From</t>
+  </si>
+  <si>
+    <t>Specific Unavailability 2 To</t>
+  </si>
+  <si>
+    <t>Specific Unavailability 3 From</t>
+  </si>
+  <si>
+    <t>Specific Unavailability 3 To</t>
+  </si>
+  <si>
+    <t>Specific Unavailability 4 From</t>
+  </si>
+  <si>
+    <t>Specific Unavailability 4 To</t>
+  </si>
+  <si>
+    <t>Specific Unavailability 5 From</t>
+  </si>
+  <si>
+    <t>Specific Unavailability 5 To</t>
+  </si>
+  <si>
+    <t>Specific Unavailability 6 From</t>
+  </si>
+  <si>
+    <t>Specific Unavailability 6 To</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1016,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1085,6 +1094,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1474,7 +1484,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1521,7 +1531,7 @@
         <v>25</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -2258,7 +2268,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B15" s="12">
         <f>SUM(B3:B14)</f>
@@ -2367,7 +2377,7 @@
         <v>25</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -3104,7 +3114,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B31" s="12">
         <f>SUM(B19:B30)</f>
@@ -3213,7 +3223,7 @@
         <v>25</v>
       </c>
       <c r="O34" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -3482,7 +3492,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B47" s="12">
         <f>SUM(B35:B46)</f>
@@ -3591,7 +3601,7 @@
         <v>25</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -3860,7 +3870,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B63" s="12">
         <f>SUM(B51:B62)</f>
@@ -3962,7 +3972,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" s="16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -3970,7 +3980,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C3" s="34">
         <v>43683</v>
@@ -6628,13 +6638,13 @@
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="23" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -7001,16 +7011,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E3" s="3">
         <v>86606702</v>
@@ -7018,16 +7028,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E4" s="3">
         <v>90468200</v>
@@ -7035,16 +7045,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E5" s="3">
         <v>97887664</v>
@@ -7052,16 +7062,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E6" s="30">
         <v>423624108</v>
@@ -7069,16 +7079,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E7" s="30">
         <v>86606703</v>
@@ -7086,16 +7096,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E8" s="30">
         <v>423737490</v>
@@ -7103,33 +7113,33 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E10" s="30">
         <v>431277766</v>
@@ -7137,29 +7147,29 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E12" s="30">
         <v>417108341</v>
@@ -7167,16 +7177,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E13" s="30">
         <v>439631177</v>
@@ -7184,33 +7194,33 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E15" s="30">
         <v>475414701</v>
@@ -7218,16 +7228,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E16" s="30">
         <v>416864965</v>
@@ -7235,16 +7245,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E17" s="30">
         <v>431747640</v>
@@ -7252,16 +7262,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E18" s="30">
         <v>93971899</v>
@@ -7269,16 +7279,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E19" s="30">
         <v>432801338</v>
@@ -8219,13 +8229,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AN43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="92" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
+      <selection pane="bottomRight" activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8233,20 +8243,26 @@
     <col min="1" max="21" width="20.1640625" customWidth="1"/>
     <col min="22" max="22" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.6640625" customWidth="1"/>
-    <col min="25" max="25" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" customWidth="1"/>
-    <col min="27" max="27" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.83203125" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" customWidth="1"/>
+    <col min="26" max="26" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.83203125" customWidth="1"/>
     <col min="28" max="28" width="9.6640625" customWidth="1"/>
     <col min="29" max="29" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.6640625" customWidth="1"/>
-    <col min="31" max="31" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.6640625" customWidth="1"/>
-    <col min="33" max="33" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.33203125" customWidth="1"/>
+    <col min="30" max="30" width="20.83203125" customWidth="1"/>
+    <col min="31" max="31" width="9.6640625" customWidth="1"/>
+    <col min="32" max="32" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.83203125" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" customWidth="1"/>
+    <col min="35" max="35" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.83203125" customWidth="1"/>
+    <col min="37" max="37" width="9.6640625" customWidth="1"/>
+    <col min="38" max="38" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.83203125" customWidth="1"/>
+    <col min="40" max="40" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>54</v>
       </c>
@@ -8266,10 +8282,10 @@
         <v>53</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I1" s="23" t="s">
         <v>62</v>
@@ -8314,62 +8330,80 @@
         <v>74</v>
       </c>
       <c r="W1" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y1" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="X1" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>78</v>
-      </c>
       <c r="Z1" s="23" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AA1" s="23" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="AB1" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC1" s="23" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="AD1" s="23" t="s">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AE1" s="23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AF1" s="23" t="s">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AG1" s="23" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="AH1" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="AI1" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ1" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK1" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL1" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM1" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I2" s="11">
         <v>0.66666666666666663</v>
@@ -8405,10 +8439,12 @@
       <c r="T2" s="11"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
-      <c r="W2" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="X2" s="3"/>
+      <c r="W2" s="45">
+        <v>43497</v>
+      </c>
+      <c r="X2" s="45">
+        <v>43501</v>
+      </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
@@ -8419,29 +8455,35 @@
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I3" s="11">
         <v>0.47916666666666669</v>
@@ -8481,27 +8523,33 @@
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -8545,27 +8593,33 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -8593,10 +8647,12 @@
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="X5" s="3"/>
+      <c r="W5" s="45">
+        <v>43503</v>
+      </c>
+      <c r="X5" s="45">
+        <v>43506</v>
+      </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
@@ -8607,27 +8663,33 @@
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I6" s="11">
         <v>0.39583333333333331</v>
@@ -8671,29 +8733,35 @@
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -8733,27 +8801,33 @@
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I8" s="11">
         <v>0.58333333333333337</v>
@@ -8793,27 +8867,33 @@
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -8857,27 +8937,33 @@
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -8917,27 +9003,33 @@
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I11" s="11">
         <v>0.39583333333333331</v>
@@ -8969,10 +9061,12 @@
       </c>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="X11" s="3"/>
+      <c r="W11" s="45">
+        <v>43647</v>
+      </c>
+      <c r="X11" s="45">
+        <v>43651</v>
+      </c>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
@@ -8983,27 +9077,33 @@
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I12" s="11">
         <v>0.47916666666666669</v>
@@ -9051,27 +9151,33 @@
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -9111,27 +9217,33 @@
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I14" s="11">
         <v>0.4375</v>
@@ -9179,27 +9291,33 @@
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -9239,17 +9357,23 @@
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
@@ -9257,7 +9381,7 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I16" s="11">
         <v>0.39583333333333331</v>
@@ -9301,17 +9425,23 @@
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
@@ -9319,7 +9449,7 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -9363,27 +9493,33 @@
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I18" s="11">
         <v>0.58333333333333337</v>
@@ -9423,27 +9559,33 @@
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I19" s="11">
         <v>0.41666666666666669</v>
@@ -9491,27 +9633,33 @@
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I20" s="11">
         <v>0.41666666666666669</v>
@@ -9555,27 +9703,33 @@
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -9619,27 +9773,33 @@
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -9683,27 +9843,33 @@
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I23" s="11">
         <v>0.39583333333333331</v>
@@ -9755,29 +9921,35 @@
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -9821,17 +9993,23 @@
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
@@ -9839,7 +10017,7 @@
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I25" s="11">
         <v>0.39583333333333331</v>
@@ -9883,27 +10061,33 @@
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I26" s="11">
         <v>0.39583333333333331</v>
@@ -9951,27 +10135,33 @@
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I27" s="11">
         <v>0.625</v>
@@ -10023,27 +10213,33 @@
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I28" s="11">
         <v>0.625</v>
@@ -10087,27 +10283,33 @@
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I29" s="11">
         <v>0.45833333333333331</v>
@@ -10151,27 +10353,33 @@
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I30" s="11">
         <v>0.375</v>
@@ -10211,29 +10419,35 @@
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -10261,8 +10475,14 @@
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -10297,8 +10517,14 @@
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -10333,8 +10559,14 @@
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -10369,8 +10601,14 @@
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
       <c r="AH34" s="3"/>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10405,8 +10643,14 @@
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -10441,8 +10685,14 @@
       <c r="AF36" s="3"/>
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -10477,8 +10727,14 @@
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -10513,8 +10769,14 @@
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -10549,8 +10811,14 @@
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -10585,8 +10853,14 @@
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -10621,8 +10895,14 @@
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
       <c r="AH41" s="3"/>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -10657,8 +10937,14 @@
       <c r="AF42" s="3"/>
       <c r="AG42" s="3"/>
       <c r="AH42" s="3"/>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="3"/>
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3"/>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -10693,6 +10979,12 @@
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
       <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="3"/>
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -10761,7 +11053,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="C2" s="41" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -10891,7 +11183,7 @@
         <v>9</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K8" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J8,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
@@ -10938,10 +11230,10 @@
         <v>27</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K9" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J9,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
@@ -10991,7 +11283,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K10" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J10,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
@@ -11041,7 +11333,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K11" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J11,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
@@ -11088,10 +11380,10 @@
         <v>20</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K12" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J12,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
@@ -11141,7 +11433,7 @@
         <v>9</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K13" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J13,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
@@ -11179,7 +11471,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>23</v>
@@ -11187,7 +11479,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="28"/>
       <c r="J14" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K14" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J14,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
@@ -11237,7 +11529,7 @@
         <v>9</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K15" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J15,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
@@ -11284,10 +11576,10 @@
         <v>20</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K16" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J16,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
@@ -11325,7 +11617,7 @@
         <v>8</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>25</v>
@@ -11334,10 +11626,10 @@
         <v>20</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K17" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J17,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
@@ -11387,7 +11679,7 @@
         <v>7</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K18" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J18,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
@@ -11434,10 +11726,10 @@
         <v>20</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K19" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J19,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
@@ -11475,7 +11767,7 @@
         <v>8</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>15</v>
@@ -11484,10 +11776,10 @@
         <v>20</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K20" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J20,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
@@ -11537,7 +11829,7 @@
         <v>9</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K21" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J21,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
@@ -11587,7 +11879,7 @@
         <v>9</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K22" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J22,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
@@ -11631,13 +11923,13 @@
         <v>15</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I23" s="6">
         <v>15</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K23" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J23,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
@@ -11687,7 +11979,7 @@
         <v>9</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K24" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J24,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
@@ -11734,10 +12026,10 @@
         <v>27</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="J25" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K25" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J25,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>
@@ -11787,7 +12079,7 @@
         <v>9</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K26" s="6" t="str">
         <f>IFERROR(INDEX('Contact Information'!$A$3:$E$625,MATCH(Melbourne!$J26,'Contact Information'!$A$3:$A$625,0),MATCH(K$7,'Contact Information'!$A$2:$E$2,0)),"")</f>

--- a/src/ExcelSheetIO/BigIssueRostering.xlsx
+++ b/src/ExcelSheetIO/BigIssueRostering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joao/Documents/GitHub/swen90014-2019-bi-bilby/src/ExcelSheetIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6AD572-C805-194D-9214-AD60D8CDB20F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF17027E-BF8C-7B40-AE50-6FB7F1162A1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Cities" sheetId="7" r:id="rId1"/>
@@ -518,9 +518,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t xml:space="preserve">Workshop </t>
   </si>
   <si>
@@ -546,9 +543,6 @@
   </si>
   <si>
     <t>P123,DHD,HHIe</t>
-  </si>
-  <si>
-    <t>P123,DHD,HHIe,C</t>
   </si>
   <si>
     <t>Specific Unavailability 1 From</t>
@@ -617,7 +611,13 @@
     <t>P123,P456,DHD,HHIe</t>
   </si>
   <si>
-    <t>P123,DHD,HHIe,TBIdea</t>
+    <t>P123,DHD,TBIdea,HHIe</t>
+  </si>
+  <si>
+    <t>P123,DHD,C,HHIe</t>
+  </si>
+  <si>
+    <t>P123,DHD,TBIdea,C,HHIe</t>
   </si>
 </sst>
 </file>
@@ -790,7 +790,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -997,6 +997,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1009,7 +1035,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1058,6 +1084,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1211,7 +1242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1263,7 +1294,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3960,10 +3991,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="36"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" s="16" t="s">
@@ -6610,16 +6641,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="E1" s="38" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
@@ -6633,13 +6664,13 @@
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="23" t="s">
         <v>159</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -6979,13 +7010,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
@@ -8227,10 +8258,10 @@
   <dimension ref="A1:AN43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="92" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8327,58 +8358,58 @@
         <v>74</v>
       </c>
       <c r="W1" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z1" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="AA1" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="Y1" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z1" s="23" t="s">
+      <c r="AB1" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC1" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AD1" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="AB1" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AE1" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF1" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AG1" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="AE1" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AH1" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI1" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="AG1" s="23" t="s">
+      <c r="AJ1" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="AH1" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI1" s="23" t="s">
+      <c r="AK1" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL1" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="AJ1" s="23" t="s">
+      <c r="AM1" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="AK1" s="23" t="s">
+      <c r="AN1" s="23" t="s">
         <v>185</v>
-      </c>
-      <c r="AL1" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="AM1" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN1" s="23" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
@@ -8390,48 +8421,40 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I2" s="11">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="11">
         <v>0.70833333333333337</v>
       </c>
       <c r="K2" s="11">
-        <v>0.4375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L2" s="11">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="M2" s="11">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="N2" s="11">
-        <v>0.5625</v>
-      </c>
-      <c r="O2" s="11">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="P2" s="11">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="Q2" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="36">
         <v>0.5</v>
       </c>
-      <c r="R2" s="11">
+      <c r="P2" s="40">
         <v>0.625</v>
       </c>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
       <c r="U2" s="3"/>
@@ -8443,7 +8466,7 @@
         <v>43501</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
@@ -8472,40 +8495,40 @@
         <v>136</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>156</v>
       </c>
       <c r="I3" s="11">
-        <v>0.47916666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="J3" s="27">
-        <v>0.60416666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="11">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="N3" s="11">
-        <v>0.47916666666666669</v>
-      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
       <c r="O3" s="11">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="P3" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="R3" s="11">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -8538,46 +8561,46 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="I4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="38">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="K4" s="11">
-        <v>0.47916666666666669</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L4" s="11">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="M4" s="11">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="N4" s="11">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P4" s="11">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="Q4" s="11">
         <v>0.375</v>
       </c>
       <c r="R4" s="11">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="S4" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="T4" s="11">
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
@@ -8608,42 +8631,42 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11">
+      <c r="I5" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="N5" s="11">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="R5" s="11">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="S5" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="T5" s="11">
-        <v>0.70833333333333337</v>
-      </c>
+      <c r="L5" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P5" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="35">
@@ -8678,46 +8701,42 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>156</v>
       </c>
       <c r="I6" s="11">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0.52083333333333337</v>
+        <v>0.375</v>
+      </c>
+      <c r="J6" s="27">
+        <v>0.5</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="11">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="N6" s="11">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="O6" s="11">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="P6" s="11">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="T6" s="11">
-        <v>0.70833333333333337</v>
-      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="40">
+        <v>0.625</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
@@ -8750,39 +8769,43 @@
         <v>141</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="L7" s="11">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="M7" s="11">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="N7" s="11">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
+      <c r="I7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K7" s="36">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L7" s="40">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="Q7" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="R7" s="11">
         <v>0.45833333333333331</v>
-      </c>
-      <c r="R7" s="11">
-        <v>0.60416666666666663</v>
       </c>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
@@ -8816,42 +8839,42 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I8" s="11">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="J8" s="11">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="36">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L8" s="40">
         <v>0.66666666666666663</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
-      <c r="O8" s="11">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="P8" s="11">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="11">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="T8" s="11">
-        <v>0.47916666666666669</v>
-      </c>
+      <c r="O8" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="P8" s="40">
+        <v>0.625</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -8882,30 +8905,38 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="L9" s="11">
-        <v>0.52083333333333337</v>
+      <c r="I9" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="J9" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="36">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L9" s="40">
+        <v>0.66666666666666663</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
+      <c r="O9" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="11"/>
@@ -8919,7 +8950,7 @@
         <v>43505</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
@@ -8946,39 +8977,39 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>156</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="11">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="L10" s="11">
-        <v>0.5625</v>
-      </c>
-      <c r="M10" s="11">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="N10" s="11">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="36">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L10" s="40">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="P10" s="40">
+        <v>0.625</v>
+      </c>
       <c r="Q10" s="11">
         <v>0.375</v>
       </c>
       <c r="R10" s="11">
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -9012,46 +9043,42 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>156</v>
       </c>
       <c r="I11" s="11">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="K11" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="J11" s="36">
         <v>0.5</v>
       </c>
-      <c r="L11" s="11">
-        <v>0.625</v>
-      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="11">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="P11" s="11">
-        <v>0.5625</v>
-      </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="T11" s="11">
-        <v>0.70833333333333337</v>
-      </c>
+      <c r="O11" s="36">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P11" s="40">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="35">
@@ -9086,50 +9113,42 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>156</v>
       </c>
       <c r="I12" s="11">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="11">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="N12" s="11">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="O12" s="11">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="P12" s="11">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="R12" s="11">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="S12" s="11">
         <v>0.375</v>
       </c>
-      <c r="T12" s="11">
-        <v>0.70833333333333337</v>
-      </c>
+      <c r="J12" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="36">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L12" s="40">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="P12" s="40">
+        <v>0.625</v>
+      </c>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -9160,40 +9179,44 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="11">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="M13" s="11">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="N13" s="11">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="O13" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="P13" s="11">
+      <c r="I13" s="11">
         <v>0.5</v>
       </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="J13" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K13" s="36">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L13" s="40">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="36">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P13" s="40">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R13" s="11">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -9226,50 +9249,38 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I14" s="11">
-        <v>0.4375</v>
-      </c>
-      <c r="J14" s="11">
-        <v>0.6875</v>
-      </c>
-      <c r="K14" s="11">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="L14" s="11">
-        <v>0.6875</v>
-      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="11">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="P14" s="11">
+      <c r="O14" s="36">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P14" s="40">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="R14" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="Q14" s="11">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="R14" s="11">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="S14" s="11">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="T14" s="11">
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -9300,42 +9311,46 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11">
+      <c r="I15" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="J15" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="36">
         <v>0.41666666666666669</v>
       </c>
-      <c r="N15" s="11">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
+      <c r="L15" s="40">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="36">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P15" s="40">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="Q15" s="11">
-        <v>0.52083333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="R15" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="S15" s="11">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="T15" s="11">
-        <v>0.60416666666666663</v>
-      </c>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -9362,11 +9377,11 @@
         <v>48</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
@@ -9374,36 +9389,36 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I16" s="11">
-        <v>0.39583333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="J16" s="11">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K16" s="36">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L16" s="40">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P16" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="R16" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="N16" s="11">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="O16" s="11">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="P16" s="11">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="11">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="T16" s="11">
-        <v>0.47916666666666669</v>
-      </c>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -9430,11 +9445,11 @@
         <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
@@ -9446,32 +9461,28 @@
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="11">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
+      <c r="K17" s="36">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L17" s="40">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="36">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P17" s="40">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="Q17" s="11">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="R17" s="11">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="S17" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="T17" s="11">
-        <v>0.70833333333333337</v>
-      </c>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
@@ -9498,41 +9509,37 @@
         <v>48</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I18" s="11">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="J18" s="11">
-        <v>0.66666666666666663</v>
+      <c r="I18" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="J18" s="37">
+        <v>0.5</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
-      <c r="M18" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="N18" s="11">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="O18" s="11">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="P18" s="11">
-        <v>0.47916666666666669</v>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="36">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P18" s="40">
+        <v>0.54166666666666663</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -9568,7 +9575,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
@@ -9581,37 +9588,25 @@
         <v>156</v>
       </c>
       <c r="I19" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K19" s="36">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J19" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0.54166666666666663</v>
+      <c r="L19" s="40">
+        <v>0.66666666666666663</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="P19" s="11">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="Q19" s="11">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="R19" s="11">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="S19" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="T19" s="11">
-        <v>0.70833333333333337</v>
-      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
@@ -10643,7 +10638,7 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:V43 I2:J2 I3 K2:N43 Q2:R24 Q27:R27 P25:P26 J29:J30 I4:J28 I31:J43 O19:P21 P22:P23 O24:P24 O27:P43 P2:P18 R25:R26 R28:R43" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:V43 I4:J4 I3 I11:I12 O7:R7 Q27:R27 P25:P26 J29:J30 R28:R43 I31:J43 O19:P21 P22:P23 O24:P24 O27:P43 K18:L18 R25:R26 I13:J14 I5:I6 I7:J8 I9 I10:J10 I19:J28 I2:L2 I15 I16:J17 M2:N43 K14:L14 Q17:R24 J5 K20:L43 O9:P9 O3:P5 P16:R16 Q2:R6 Q8:R15 K3:L6 K11:L11" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>0.375</formula1>
       <formula2>0.708333333333333</formula2>
     </dataValidation>
@@ -10656,7 +10651,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A43" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"Facilitator,Guest Speaker"</formula1>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O25:O26 Q1 O2:O18 I29:I30 O22:O23 Q25:Q26 Q28:Q1048576" xr:uid="{00000000-0002-0000-0400-000004000000}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O25:O26 Q1 Q28:Q1048576 I29:I30 O22:O23 Q25:Q26 O16" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>0.354166666666667</formula1>
       <formula2>0.708333333333333</formula2>
     </dataValidation>
@@ -10681,10 +10676,10 @@
   <dimension ref="A1:Y1207"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10706,60 +10701,60 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="N2" s="43">
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="N2" s="48">
         <f ca="1">TODAY()</f>
-        <v>43746</v>
+        <v>43748</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="N3" s="44"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="N3" s="49"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="N4" s="44"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="N4" s="49"/>
     </row>
     <row r="5" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="N5" s="45"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="N5" s="50"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6"/>
@@ -11174,7 +11169,7 @@
         <v>61</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H15" s="6">
         <v>25</v>
@@ -11324,7 +11319,7 @@
         <v>61</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" s="6">
         <v>20</v>
